--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rogiel/Documents/GitHub/ufrgs-instrumentacao-projeto/Resources/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheila\Desktop\Instrumentação\Github\ufrgs-instrumentacao-projeto\Resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor de Nível (Capacitância)" sheetId="1" r:id="rId1"/>
     <sheet name="Pt100 (Resistência)" sheetId="3" r:id="rId2"/>
     <sheet name="Pt100 (Condicionado&quot;)" sheetId="2" r:id="rId3"/>
+    <sheet name="Circuito Simulado" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,20 +27,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>200nF</t>
   </si>
   <si>
     <t>19.9 C</t>
   </si>
+  <si>
+    <t>T(ºC)</t>
+  </si>
+  <si>
+    <t>R_ft (Ohms)</t>
+  </si>
+  <si>
+    <t>R_med(Ohms)</t>
+  </si>
+  <si>
+    <t>R_teorico (Ohms)</t>
+  </si>
+  <si>
+    <t>Erro de Linearidade</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>V_medido</t>
+  </si>
+  <si>
+    <t>V_ft</t>
+  </si>
+  <si>
+    <t>V_teorico</t>
+  </si>
+  <si>
+    <t>V_ft(s/ offset)</t>
+  </si>
+  <si>
+    <t>ºC</t>
+  </si>
+  <si>
+    <t>R Pt100</t>
+  </si>
+  <si>
+    <t>INA (V)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -70,9 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +126,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -90,7 +136,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -102,7 +148,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -128,7 +173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -139,10 +184,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.094603442429634"/>
-          <c:y val="0.024668327607273"/>
-          <c:w val="0.864140289000525"/>
-          <c:h val="0.709019119677902"/>
+          <c:x val="9.4603442429634005E-2"/>
+          <c:y val="2.4668327607273E-2"/>
+          <c:w val="0.86414028900052497"/>
+          <c:h val="0.70901911967790199"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -182,304 +227,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34.0</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.0</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44.0</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46.0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48.0</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50.0</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54.0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56.0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58.0</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60.0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.0</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64.0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68.0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72.0</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74.0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76.0</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78.0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80.0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84.0</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88.0</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90.0</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92.0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94.0</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96.0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.0</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102.0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116.0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122.0</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124.0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126.0</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128.0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130.0</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132.0</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134.0</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136.0</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138.0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140.0</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142.0</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144.0</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146.0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148.0</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150.0</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152.0</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154.0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156.0</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158.0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160.0</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162.0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164.0</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166.0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168.0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170.0</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172.0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174.0</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176.0</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178.0</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180.0</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182.0</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184.0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186.0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188.0</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190.0</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192.0</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194.0</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196.0</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198.0</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200.0</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,7 +548,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.02</c:v>
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.8</c:v>
@@ -551,7 +596,7 @@
                   <c:v>15.84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>16.42</c:v>
+                  <c:v>16.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>17.28</c:v>
@@ -566,7 +611,7 @@
                   <c:v>19.28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20.1</c:v>
+                  <c:v>20.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>20.8</c:v>
@@ -611,25 +656,25 @@
                   <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33.3</c:v>
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>33.8</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>35.3</c:v>
+                  <c:v>35.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>36.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>37.8</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>38.4</c:v>
@@ -638,13 +683,13 @@
                   <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>39.8</c:v>
+                  <c:v>39.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>40.3</c:v>
+                  <c:v>40.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>40.8</c:v>
+                  <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>41.6</c:v>
@@ -674,7 +719,7 @@
                   <c:v>46.1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47.0</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>47.5</c:v>
@@ -734,16 +779,16 @@
                   <c:v>61.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.0</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>63.7</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>65.0</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>66.0</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>67.5</c:v>
@@ -752,7 +797,7 @@
                   <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>70.0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>71.3</c:v>
@@ -761,7 +806,7 @@
                   <c:v>73.3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>75.4</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>79.2</c:v>
@@ -773,13 +818,13 @@
                   <c:v>81.2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>87.0</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>86.0</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>89.5</c:v>
@@ -803,11 +848,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094190592"/>
-        <c:axId val="2094191584"/>
+        <c:axId val="443672512"/>
+        <c:axId val="443673688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094190592"/>
+        <c:axId val="443672512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,15 +906,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094191584"/>
+        <c:crossAx val="443673688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094191584"/>
+        <c:axId val="443673688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,10 +968,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094190592"/>
+        <c:crossAx val="443672512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -964,7 +1009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -978,7 +1023,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1016,7 +1061,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1091,19 +1136,19 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Pt100 (Resistência)'!$A$1:$A$26</c:f>
+              <c:f>'Pt100 (Resistência)'!$A$2:$A$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>11.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.3</c:v>
@@ -1133,13 +1178,13 @@
                   <c:v>31.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.8</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.7</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>41.1</c:v>
@@ -1161,7 +1206,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Pt100 (Resistência)'!$B$1:$B$26</c:f>
+              <c:f>'Pt100 (Resistência)'!$B$2:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="26"/>
@@ -1202,7 +1247,7 @@
                   <c:v>113.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>115.8</c:v>
@@ -1232,11 +1277,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103424512"/>
-        <c:axId val="2103425936"/>
+        <c:axId val="443674472"/>
+        <c:axId val="443677216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103424512"/>
+        <c:axId val="443674472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,15 +1335,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103425936"/>
+        <c:crossAx val="443677216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103425936"/>
+        <c:axId val="443677216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,10 +1397,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103424512"/>
+        <c:crossAx val="443674472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1393,7 +1438,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1407,7 +1452,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1445,7 +1490,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-BR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1498,8 +1543,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.030574365704287"/>
-                  <c:y val="-0.216386701662292"/>
+                  <c:x val="3.0574365704286999E-2"/>
+                  <c:y val="-0.21638670166229201"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1527,103 +1572,103 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-BR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Pt100 (Condicionado")'!$A$1:$A$21</c:f>
+              <c:f>'Pt100 (Condicionado")'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.0</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.0</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>103.0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>104.0</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.0</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>106.0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107.0</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.0</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110.0</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111.0</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>112.0</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>113.0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114.0</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>115.0</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116.0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.0</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>118.0</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119.0</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>120.0</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Pt100 (Condicionado")'!$B$1:$B$21</c:f>
+              <c:f>'Pt100 (Condicionado")'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.417</c:v>
+                  <c:v>0.41699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.581</c:v>
+                  <c:v>0.58099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.663</c:v>
+                  <c:v>0.66300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.741</c:v>
+                  <c:v>0.74099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82</c:v>
@@ -1632,16 +1677,16 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.981</c:v>
+                  <c:v>0.98099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.059</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.203</c:v>
+                  <c:v>1.2030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.288</c:v>
@@ -1653,25 +1698,25 @@
                   <c:v>1.456</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.539</c:v>
+                  <c:v>1.5389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>1.619</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.701</c:v>
+                  <c:v>1.7010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.785</c:v>
+                  <c:v>1.7849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.868</c:v>
+                  <c:v>1.8680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.964</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.05</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,11 +1731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094019040"/>
-        <c:axId val="2094007824"/>
+        <c:axId val="443675256"/>
+        <c:axId val="443677608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094019040"/>
+        <c:axId val="443675256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1744,15 +1789,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094007824"/>
+        <c:crossAx val="443677608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094007824"/>
+        <c:axId val="443677608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,10 +1851,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094019040"/>
+        <c:crossAx val="443675256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1847,12 +1892,417 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.3692913385826777E-2"/>
+                  <c:y val="-0.16245370370370371"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Circuito Simulado'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Circuito Simulado'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>7.0600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9940000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="443684664"/>
+        <c:axId val="443683096"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="443684664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443683096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443683096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443684664"/>
+        <c:crossesAt val="-10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1978,6 +2428,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3011,6 +3501,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3565,15 +4571,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3600,20 +4606,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3896,13 +4937,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -3913,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -3921,7 +4962,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -3929,7 +4970,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -3937,7 +4978,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
@@ -3945,7 +4986,7 @@
         <v>4.0199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
@@ -3953,7 +4994,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -3961,7 +5002,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3969,7 +5010,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -3977,7 +5018,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -3985,7 +5026,7 @@
         <v>7.41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -3993,7 +5034,7 @@
         <v>8.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
@@ -4001,7 +5042,7 @@
         <v>8.82</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
@@ -4009,7 +5050,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28</v>
       </c>
@@ -4017,7 +5058,7 @@
         <v>10.18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
@@ -4025,7 +5066,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
@@ -4033,7 +5074,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>34</v>
       </c>
@@ -4041,7 +5082,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36</v>
       </c>
@@ -4049,7 +5090,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>38</v>
       </c>
@@ -4057,7 +5098,7 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40</v>
       </c>
@@ -4065,7 +5106,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -4073,7 +5114,7 @@
         <v>16.420000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>44</v>
       </c>
@@ -4081,7 +5122,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>46</v>
       </c>
@@ -4089,7 +5130,7 @@
         <v>17.79</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>48</v>
       </c>
@@ -4097,7 +5138,7 @@
         <v>18.61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -4105,7 +5146,7 @@
         <v>19.28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
@@ -4116,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>54</v>
       </c>
@@ -4124,7 +5165,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>56</v>
       </c>
@@ -4132,7 +5173,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>58</v>
       </c>
@@ -4140,7 +5181,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>60</v>
       </c>
@@ -4148,7 +5189,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>62</v>
       </c>
@@ -4156,7 +5197,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>64</v>
       </c>
@@ -4164,7 +5205,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>66</v>
       </c>
@@ -4172,7 +5213,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>68</v>
       </c>
@@ -4180,7 +5221,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>70</v>
       </c>
@@ -4188,7 +5229,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>72</v>
       </c>
@@ -4196,7 +5237,7 @@
         <v>28.4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>74</v>
       </c>
@@ -4204,7 +5245,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>76</v>
       </c>
@@ -4212,7 +5253,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>78</v>
       </c>
@@ -4220,7 +5261,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>80</v>
       </c>
@@ -4228,7 +5269,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>82</v>
       </c>
@@ -4236,7 +5277,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>84</v>
       </c>
@@ -4244,7 +5285,7 @@
         <v>33.799999999999997</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>86</v>
       </c>
@@ -4252,7 +5293,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>88</v>
       </c>
@@ -4260,7 +5301,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>90</v>
       </c>
@@ -4268,7 +5309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92</v>
       </c>
@@ -4276,7 +5317,7 @@
         <v>36.9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>94</v>
       </c>
@@ -4284,7 +5325,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>96</v>
       </c>
@@ -4292,7 +5333,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>98</v>
       </c>
@@ -4300,7 +5341,7 @@
         <v>39.1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>100</v>
       </c>
@@ -4308,7 +5349,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>102</v>
       </c>
@@ -4316,7 +5357,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>104</v>
       </c>
@@ -4324,7 +5365,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>106</v>
       </c>
@@ -4332,7 +5373,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>108</v>
       </c>
@@ -4340,7 +5381,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>110</v>
       </c>
@@ -4348,7 +5389,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>112</v>
       </c>
@@ -4356,7 +5397,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>114</v>
       </c>
@@ -4364,7 +5405,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>116</v>
       </c>
@@ -4372,7 +5413,7 @@
         <v>44.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>118</v>
       </c>
@@ -4380,7 +5421,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>120</v>
       </c>
@@ -4388,7 +5429,7 @@
         <v>45.7</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>122</v>
       </c>
@@ -4396,7 +5437,7 @@
         <v>46.1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>124</v>
       </c>
@@ -4404,7 +5445,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>126</v>
       </c>
@@ -4412,7 +5453,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>128</v>
       </c>
@@ -4420,7 +5461,7 @@
         <v>48.4</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>130</v>
       </c>
@@ -4428,7 +5469,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>132</v>
       </c>
@@ -4436,7 +5477,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>134</v>
       </c>
@@ -4444,7 +5485,7 @@
         <v>50.4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>136</v>
       </c>
@@ -4452,7 +5493,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>138</v>
       </c>
@@ -4460,7 +5501,7 @@
         <v>51.9</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>140</v>
       </c>
@@ -4468,7 +5509,7 @@
         <v>52.9</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>142</v>
       </c>
@@ -4476,7 +5517,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>144</v>
       </c>
@@ -4484,7 +5525,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>146</v>
       </c>
@@ -4492,7 +5533,7 @@
         <v>55.1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>148</v>
       </c>
@@ -4500,7 +5541,7 @@
         <v>56.2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>150</v>
       </c>
@@ -4508,7 +5549,7 @@
         <v>57.1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>152</v>
       </c>
@@ -4516,7 +5557,7 @@
         <v>57.9</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>154</v>
       </c>
@@ -4524,7 +5565,7 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>156</v>
       </c>
@@ -4532,7 +5573,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>158</v>
       </c>
@@ -4540,7 +5581,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>160</v>
       </c>
@@ -4548,7 +5589,7 @@
         <v>61.1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>162</v>
       </c>
@@ -4556,7 +5597,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>164</v>
       </c>
@@ -4564,7 +5605,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>166</v>
       </c>
@@ -4572,7 +5613,7 @@
         <v>63.7</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>168</v>
       </c>
@@ -4580,7 +5621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>170</v>
       </c>
@@ -4588,7 +5629,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>172</v>
       </c>
@@ -4596,7 +5637,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>174</v>
       </c>
@@ -4604,7 +5645,7 @@
         <v>68.5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>176</v>
       </c>
@@ -4612,7 +5653,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>178</v>
       </c>
@@ -4620,7 +5661,7 @@
         <v>71.3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>180</v>
       </c>
@@ -4628,7 +5669,7 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>182</v>
       </c>
@@ -4636,7 +5677,7 @@
         <v>75.400000000000006</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>184</v>
       </c>
@@ -4644,7 +5685,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>186</v>
       </c>
@@ -4652,7 +5693,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>188</v>
       </c>
@@ -4660,7 +5701,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>190</v>
       </c>
@@ -4668,7 +5709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>192</v>
       </c>
@@ -4676,7 +5717,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>194</v>
       </c>
@@ -4684,7 +5725,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>196</v>
       </c>
@@ -4692,7 +5733,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>198</v>
       </c>
@@ -4700,7 +5741,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>200</v>
       </c>
@@ -4708,277 +5749,277 @@
         <v>96.3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>302</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>310</v>
       </c>
@@ -4991,159 +6032,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>11.3</v>
-      </c>
-      <c r="B1" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="1">
         <v>104.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C2" s="2">
+        <f>(0.3875*A2)+100</f>
+        <v>100.03874999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(0.3792*A2)+100.25</f>
+        <v>100.28792</v>
+      </c>
+      <c r="F2">
+        <f>((C2-D2)/($C$19-$C$2))*100</f>
+        <v>-1.2809150494795341</v>
+      </c>
+      <c r="G2" s="2">
+        <f>ABS(F2)</f>
+        <v>1.2809150494795341</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>13.3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C19" si="0">(0.3875*A3)+100</f>
+        <v>105.15375</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D19" si="1">(0.3792*A3)+100.25</f>
+        <v>105.29336000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F19" si="2">((C3-D3)/($C$19-$C$2))*100</f>
+        <v>-0.71769695411903134</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G19" si="3">ABS(F3)</f>
+        <v>0.71769695411903134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>15.8</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>106.1225</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>106.24136</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-0.61102686030072162</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="3"/>
+        <v>0.61102686030072162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>18.5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>107.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>107.16875</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>107.26519999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-0.49582315897694429</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.49582315897694429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>20.9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>108.09875</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>108.17528</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>-0.39341986891147801</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.39341986891147801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>23.4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>109.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>109.0675</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>109.12327999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>-0.28674977509316835</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.28674977509316835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>25.9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>110.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>110.03625</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>110.07128</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>-0.18007968127493168</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.18007968127493168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>27.7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <v>110.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>110.73375</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>110.75384</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>-0.10327721372572239</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10327721372572239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>29.7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>111.50875000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>111.51223999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>-1.7941138671045437E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>1.7941138671045437E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>31.6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>112.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>112.245</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>112.23272</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>6.3128132630788106E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>6.3128132630788106E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>33.799999999999997</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>113.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>113.0975</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>113.06695999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.1569978151908597</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1569978151908597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>35.6</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>113.795</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>113.74952</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.23380028273999592</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23380028273999592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>38.700000000000003</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B14" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>114.99625</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>114.92504</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.36607119907470875</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36607119907470875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>41.1</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>115.92625</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>115.83512</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.46847448914017498</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.46847448914017498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>42.7</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B16" s="1">
         <v>116.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>116.54625</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>116.44184</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.53674334918391653</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.53674334918391653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>45.2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B17" s="1">
         <v>117.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>117.515</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>117.38983999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.64341344300222625</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.64341344300222625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>49.3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>118.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>119.10374999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>118.94456</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.81835239686413142</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.81835239686413142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>50.3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>119.4</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>119.49125000000001</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>119.32375999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.86102043439154285</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.86102043439154285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <f>MAX(G2:G19)</f>
+        <v>1.2809150494795341</v>
       </c>
     </row>
   </sheetData>
@@ -5154,184 +6507,629 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>100</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="D2" s="3">
+        <f>(0.0807*A2)-7.661</f>
+        <v>0.4090000000000007</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2-0.417</f>
+        <v>-7.9999999999992855E-3</v>
+      </c>
+      <c r="F2">
+        <f>2.5-(500/(A2+100))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>101</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D22" si="0">(0.0807*A3)-7.661</f>
+        <v>0.48969999999999914</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E22" si="1">D3-0.417</f>
+        <v>7.2699999999999154E-2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F22" si="2">2.5-(500/(A3+100))</f>
+        <v>1.2437810945273853E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>102</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0.58099999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57039999999999935</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15339999999999937</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>2.4752475247524774E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>103</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65109999999999957</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.23409999999999959</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>3.6945812807881673E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>104</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.73179999999999978</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3147999999999998</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>4.9019607843137081E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>105</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8125</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>6.0975609756097615E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>106</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.89320000000000022</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.47620000000000023</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>7.2815533980582714E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>107</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.97390000000000043</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.55690000000000039</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>8.4541062801932298E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>108</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.0589999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0545999999999989</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.63759999999999883</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>9.6153846153846256E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>109</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1.141</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1352999999999991</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.71829999999999905</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.10765550239234445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>110</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1.2030000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2159999999999993</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.79899999999999927</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.11904761904761907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>111</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1.288</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2966999999999995</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.87969999999999948</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.13033175355450233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>112</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>1.373</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.3773999999999997</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.9603999999999997</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>0.14150943396226401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>113</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1.456</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4581</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0410999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>0.15258215962441302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>114</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>1.5389999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5388000000000002</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1218000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>0.16355140186915884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>115</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>1.619</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6195000000000004</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2025000000000003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>0.17441860465116266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>116</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>1.7010000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7002000000000006</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2832000000000006</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>0.18518518518518512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>117</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>1.7849999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="D19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.780899999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.363899999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>0.19585253456221219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>118</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>1.8680000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8615999999999993</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4445999999999992</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>0.20642201834862384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>119</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>1.964</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9422999999999995</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5252999999999994</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>0.21689497716894968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>120</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>2.0499999999999998</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0229999999999997</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6059999999999997</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>0.22727272727272707</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>96.13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7.0600000000000003E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>98.06</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.37359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.7349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>101.84</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>103.88</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4770000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>105.78</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1">
+        <v>107.75</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2.1110000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>109.69</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1">
+        <v>111.63</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2.762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>113.56</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1">
+        <v>115.5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.3879999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1">
+        <v>117.44</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3.6930000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1">
+        <v>119.38</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.9940000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="1980" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor de Nível (Capacitância)" sheetId="1" r:id="rId1"/>
@@ -803,11 +803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094190592"/>
-        <c:axId val="2094191584"/>
+        <c:axId val="2092995664"/>
+        <c:axId val="2128296160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094190592"/>
+        <c:axId val="2092995664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,12 +864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094191584"/>
+        <c:crossAx val="2128296160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094191584"/>
+        <c:axId val="2128296160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094190592"/>
+        <c:crossAx val="2092995664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1232,11 +1232,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2103424512"/>
-        <c:axId val="2103425936"/>
+        <c:axId val="-2123234128"/>
+        <c:axId val="2097577184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2103424512"/>
+        <c:axId val="-2123234128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,12 +1293,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103425936"/>
+        <c:crossAx val="2097577184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2103425936"/>
+        <c:axId val="2097577184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103424512"/>
+        <c:crossAx val="-2123234128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1686,11 +1686,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2094019040"/>
-        <c:axId val="2094007824"/>
+        <c:axId val="-2123030032"/>
+        <c:axId val="2096335888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2094019040"/>
+        <c:axId val="-2123030032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1747,12 +1747,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094007824"/>
+        <c:crossAx val="2096335888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2094007824"/>
+        <c:axId val="2096335888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,7 +1809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094019040"/>
+        <c:crossAx val="-2123030032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3896,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="99" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A75" zoomScale="99" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3909,6 +3909,10 @@
       <c r="B1">
         <v>0.92</v>
       </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("{",A1,",",B1,"},")</f>
+        <v>{2,0.92},</v>
+      </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -3920,6 +3924,10 @@
       <c r="B2">
         <v>1.95</v>
       </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE("{",A2,",",B2,"},")</f>
+        <v>{4,1.95},</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -3928,6 +3936,10 @@
       <c r="B3">
         <v>2.9</v>
       </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{6,2.9},</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -3936,6 +3948,10 @@
       <c r="B4">
         <v>3.5</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{8,3.5},</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -3944,6 +3960,10 @@
       <c r="B5">
         <v>4.0199999999999996</v>
       </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{10,4.02},</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -3952,6 +3972,10 @@
       <c r="B6">
         <v>4.8</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{12,4.8},</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -3960,6 +3984,10 @@
       <c r="B7">
         <v>5.5</v>
       </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{14,5.5},</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -3968,6 +3996,10 @@
       <c r="B8">
         <v>6.16</v>
       </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{16,6.16},</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -3976,6 +4008,10 @@
       <c r="B9">
         <v>6.84</v>
       </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{18,6.84},</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -3984,6 +4020,10 @@
       <c r="B10">
         <v>7.41</v>
       </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{20,7.41},</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -3992,6 +4032,10 @@
       <c r="B11">
         <v>8.01</v>
       </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{22,8.01},</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4000,6 +4044,10 @@
       <c r="B12">
         <v>8.82</v>
       </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{24,8.82},</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4008,6 +4056,10 @@
       <c r="B13">
         <v>9.4</v>
       </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{26,9.4},</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4016,6 +4068,10 @@
       <c r="B14">
         <v>10.18</v>
       </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{28,10.18},</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -4024,6 +4080,10 @@
       <c r="B15">
         <v>10.9</v>
       </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{30,10.9},</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -4032,6 +4092,10 @@
       <c r="B16">
         <v>11.4</v>
       </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{32,11.4},</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4040,6 +4104,10 @@
       <c r="B17">
         <v>13.71</v>
       </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{34,13.71},</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -4048,6 +4116,10 @@
       <c r="B18">
         <v>14.39</v>
       </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{36,14.39},</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4056,6 +4128,10 @@
       <c r="B19">
         <v>15.02</v>
       </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>{38,15.02},</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -4064,6 +4140,10 @@
       <c r="B20">
         <v>15.84</v>
       </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{40,15.84},</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4072,6 +4152,10 @@
       <c r="B21">
         <v>16.420000000000002</v>
       </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{42,16.42},</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -4080,6 +4164,10 @@
       <c r="B22">
         <v>17.28</v>
       </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>{44,17.28},</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -4088,6 +4176,10 @@
       <c r="B23">
         <v>17.79</v>
       </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>{46,17.79},</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -4096,6 +4188,10 @@
       <c r="B24">
         <v>18.61</v>
       </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>{48,18.61},</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -4104,6 +4200,10 @@
       <c r="B25">
         <v>19.28</v>
       </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>{50,19.28},</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -4112,6 +4212,10 @@
       <c r="B26">
         <v>20.100000000000001</v>
       </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>{52,20.1},</v>
+      </c>
       <c r="D26" t="s">
         <v>0</v>
       </c>
@@ -4123,6 +4227,10 @@
       <c r="B27">
         <v>20.8</v>
       </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>{54,20.8},</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -4131,6 +4239,10 @@
       <c r="B28">
         <v>21.3</v>
       </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>{56,21.3},</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
@@ -4139,6 +4251,10 @@
       <c r="B29">
         <v>22.1</v>
       </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>{58,22.1},</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -4147,6 +4263,10 @@
       <c r="B30">
         <v>22.9</v>
       </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>{60,22.9},</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
@@ -4155,6 +4275,10 @@
       <c r="B31">
         <v>23.7</v>
       </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE("{",A31,",",B31,"},")</f>
+        <v>{62,23.7},</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -4163,607 +4287,883 @@
       <c r="B32">
         <v>24.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>{64,24.6},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>66</v>
       </c>
       <c r="B33">
         <v>25.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>{66,25.4},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>68</v>
       </c>
       <c r="B34">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>{68,26.6},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>70</v>
       </c>
       <c r="B35">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>{70,27.5},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>72</v>
       </c>
       <c r="B36">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>{72,28.4},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>74</v>
       </c>
       <c r="B37">
         <v>29.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>{74,29.1},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>76</v>
       </c>
       <c r="B38">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>{76,30.4},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>78</v>
       </c>
       <c r="B39">
         <v>31.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>{78,31.3},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>80</v>
       </c>
       <c r="B40">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>{80,32.4},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>82</v>
       </c>
       <c r="B41">
         <v>33.299999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>{82,33.3},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>84</v>
       </c>
       <c r="B42">
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>{84,33.8},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>86</v>
       </c>
       <c r="B43">
         <v>33.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>{86,33.5},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>88</v>
       </c>
       <c r="B44">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>{88,35.3},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>90</v>
       </c>
       <c r="B45">
         <v>36</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>{90,36},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>92</v>
       </c>
       <c r="B46">
         <v>36.9</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>{92,36.9},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>94</v>
       </c>
       <c r="B47">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>{94,37.8},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>96</v>
       </c>
       <c r="B48">
         <v>38.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>{96,38.4},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>98</v>
       </c>
       <c r="B49">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>{98,39.1},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>100</v>
       </c>
       <c r="B50">
         <v>39.799999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>{100,39.8},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>102</v>
       </c>
       <c r="B51">
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>{102,40.3},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>104</v>
       </c>
       <c r="B52">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>{104,40.8},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>106</v>
       </c>
       <c r="B53">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>{106,41.6},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>108</v>
       </c>
       <c r="B54">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="str">
+        <f>CONCATENATE("{",A54,",",B54,"},")</f>
+        <v>{108,42.1},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>110</v>
       </c>
       <c r="B55">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>{110,42.6},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>112</v>
       </c>
       <c r="B56">
         <v>43.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>{112,43.2},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>114</v>
       </c>
       <c r="B57">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>{114,43.7},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>116</v>
       </c>
       <c r="B58">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>{116,44.4},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>118</v>
       </c>
       <c r="B59">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>{118,44.9},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>120</v>
       </c>
       <c r="B60">
         <v>45.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>{120,45.7},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>122</v>
       </c>
       <c r="B61">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>{122,46.1},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>124</v>
       </c>
       <c r="B62">
         <v>47</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>{124,47},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>126</v>
       </c>
       <c r="B63">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>{126,47.5},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>128</v>
       </c>
       <c r="B64">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>{128,48.4},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>130</v>
       </c>
       <c r="B65">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>{130,48.8},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>132</v>
       </c>
       <c r="B66">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C81" si="1">CONCATENATE("{",A66,",",B66,"},")</f>
+        <v>{132,49.6},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>134</v>
       </c>
       <c r="B67">
         <v>50.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>{134,50.4},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>136</v>
       </c>
       <c r="B68">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>{136,51.2},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>138</v>
       </c>
       <c r="B69">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>{138,51.9},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>140</v>
       </c>
       <c r="B70">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>{140,52.9},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>142</v>
       </c>
       <c r="B71">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>{142,53.5},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>144</v>
       </c>
       <c r="B72">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>{144,54.6},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>146</v>
       </c>
       <c r="B73">
         <v>55.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>{146,55.1},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>148</v>
       </c>
       <c r="B74">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>{148,56.2},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>150</v>
       </c>
       <c r="B75">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>{150,57.1},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>152</v>
       </c>
       <c r="B76">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>{152,57.9},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>154</v>
       </c>
       <c r="B77">
         <v>58.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>{154,58.5},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>156</v>
       </c>
       <c r="B78">
         <v>59.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>{156,59.5},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>158</v>
       </c>
       <c r="B79">
         <v>60.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>{158,60.1},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>160</v>
       </c>
       <c r="B80">
         <v>61.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>{160,61.1},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>162</v>
       </c>
       <c r="B81">
         <v>61.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>{162,61.8},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>164</v>
       </c>
       <c r="B82">
         <v>63</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" t="str">
+        <f>CONCATENATE("{",A82,",",B82,"},")</f>
+        <v>{164,63},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>166</v>
       </c>
       <c r="B83">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="str">
+        <f t="shared" ref="C83:C93" si="2">CONCATENATE("{",A83,",",B83,"},")</f>
+        <v>{166,63.7},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>168</v>
       </c>
       <c r="B84">
         <v>65</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="str">
+        <f t="shared" si="2"/>
+        <v>{168,65},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>170</v>
       </c>
       <c r="B85">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="str">
+        <f t="shared" si="2"/>
+        <v>{170,66},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>172</v>
       </c>
       <c r="B86">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="str">
+        <f t="shared" si="2"/>
+        <v>{172,67.5},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>174</v>
       </c>
       <c r="B87">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="str">
+        <f t="shared" si="2"/>
+        <v>{174,68.5},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>176</v>
       </c>
       <c r="B88">
         <v>70</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="str">
+        <f t="shared" si="2"/>
+        <v>{176,70},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>178</v>
       </c>
       <c r="B89">
         <v>71.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="str">
+        <f t="shared" si="2"/>
+        <v>{178,71.3},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>180</v>
       </c>
       <c r="B90">
         <v>73.3</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="str">
+        <f t="shared" si="2"/>
+        <v>{180,73.3},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>182</v>
       </c>
       <c r="B91">
         <v>75.400000000000006</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="str">
+        <f t="shared" si="2"/>
+        <v>{182,75.4},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>184</v>
       </c>
       <c r="B92">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="str">
+        <f t="shared" si="2"/>
+        <v>{184,79.2},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>186</v>
       </c>
       <c r="B93">
         <v>79.3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="str">
+        <f t="shared" si="2"/>
+        <v>{186,79.3},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>188</v>
       </c>
       <c r="B94">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="str">
+        <f>CONCATENATE("{",A94,",",B94,"},")</f>
+        <v>{188,81.2},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>190</v>
       </c>
       <c r="B95">
         <v>86</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="str">
+        <f t="shared" ref="C95:C100" si="3">CONCATENATE("{",A95,",",B95,"},")</f>
+        <v>{190,86},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>192</v>
       </c>
       <c r="B96">
         <v>87</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>{192,87},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>194</v>
       </c>
       <c r="B97">
         <v>86</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>{194,86},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>196</v>
       </c>
       <c r="B98">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>{196,89.5},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>198</v>
       </c>
       <c r="B99">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>{198,99.1},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>200</v>
       </c>
       <c r="B100">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>{200,96.3},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>224</v>
       </c>
@@ -4991,10 +5391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C1" sqref="C1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5002,148 +5402,220 @@
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>11.3</v>
       </c>
       <c r="B1" s="1">
         <v>104.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="str">
+        <f>CONCATENATE("{",A1,",",B1,"},")</f>
+        <v>{11.3,104.4},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>13.3</v>
       </c>
       <c r="B2" s="1">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C18" si="0">CONCATENATE("{",A2,",",B2,"},")</f>
+        <v>{13.3,105.3},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15.8</v>
       </c>
       <c r="B3" s="1">
         <v>106.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{15.8,106.2},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>18.5</v>
       </c>
       <c r="B4" s="1">
         <v>107.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{18.5,107.3},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20.9</v>
       </c>
       <c r="B5" s="1">
         <v>108.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{20.9,108.2},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>23.4</v>
       </c>
       <c r="B6" s="1">
         <v>109.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{23.4,109.2},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>25.9</v>
       </c>
       <c r="B7" s="1">
         <v>110.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{25.9,110.1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>27.7</v>
       </c>
       <c r="B8" s="1">
         <v>110.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{27.7,110.8},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>29.7</v>
       </c>
       <c r="B9" s="1">
         <v>111.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{29.7,111.5},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>31.6</v>
       </c>
       <c r="B10" s="1">
         <v>112.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{31.6,112.2},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>33.799999999999997</v>
       </c>
       <c r="B11" s="1">
         <v>113.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{33.8,113.2},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35.6</v>
       </c>
       <c r="B12" s="1">
         <v>113.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{35.6,113.8},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>38.700000000000003</v>
       </c>
       <c r="B13" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{38.7,115},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>41.1</v>
       </c>
       <c r="B14" s="1">
         <v>115.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{41.1,115.8},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>42.7</v>
       </c>
       <c r="B15" s="1">
         <v>116.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{42.7,116.4},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>45.2</v>
       </c>
       <c r="B16" s="1">
         <v>117.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{45.2,117.2},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>49.3</v>
       </c>
       <c r="B17" s="1">
         <v>118.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{49.3,118.9},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>50.3</v>
       </c>
       <c r="B18" s="1">
         <v>119.4</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{50.3,119.4},</v>
       </c>
     </row>
   </sheetData>
@@ -5154,180 +5626,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>100</v>
       </c>
       <c r="B1">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="str">
+        <f>CONCATENATE("{",A1,",",B1,"},")</f>
+        <v>{100,0.417},</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>101</v>
       </c>
       <c r="B2">
         <v>0.499</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C21" si="0">CONCATENATE("{",A2,",",B2,"},")</f>
+        <v>{101,0.499},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>102</v>
       </c>
       <c r="B3">
         <v>0.58099999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>{102,0.581},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>103</v>
       </c>
       <c r="B4">
         <v>0.66300000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>{103,0.663},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>104</v>
       </c>
       <c r="B5">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>{104,0.741},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>105</v>
       </c>
       <c r="B6">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>{105,0.82},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>106</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>{106,0.9},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>107</v>
       </c>
       <c r="B8">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>{107,0.981},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>108</v>
       </c>
       <c r="B9">
         <v>1.0589999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>{108,1.059},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>109</v>
       </c>
       <c r="B10">
         <v>1.141</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>{109,1.141},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>110</v>
       </c>
       <c r="B11">
         <v>1.2030000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>{110,1.203},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>111</v>
       </c>
       <c r="B12">
         <v>1.288</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>{111,1.288},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>112</v>
       </c>
       <c r="B13">
         <v>1.373</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>{112,1.373},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>113</v>
       </c>
       <c r="B14">
         <v>1.456</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>{113,1.456},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>114</v>
       </c>
       <c r="B15">
         <v>1.5389999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>{114,1.539},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>115</v>
       </c>
       <c r="B16">
         <v>1.619</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>{115,1.619},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>116</v>
       </c>
       <c r="B17">
         <v>1.7010000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>{116,1.701},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>117</v>
       </c>
       <c r="B18">
         <v>1.7849999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>{117,1.785},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>118</v>
       </c>
       <c r="B19">
         <v>1.8680000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="str">
+        <f>CONCATENATE("{",A19,",",B19,"},")</f>
+        <v>{118,1.868},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>119</v>
       </c>
       <c r="B20">
         <v>1.964</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>{119,1.964},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>120</v>
       </c>
       <c r="B21">
         <v>2.0499999999999998</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>{120,2.05},</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor de Nível (Capacitância)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>200nF</t>
   </si>
@@ -65,13 +65,16 @@
     <t>V_ft(s/ offset)</t>
   </si>
   <si>
-    <t>ºC</t>
+    <t>T (ºC)</t>
   </si>
   <si>
-    <t>R Pt100</t>
+    <t>R(T)</t>
   </si>
   <si>
-    <t>INA (V)</t>
+    <t>V_out (V)</t>
+  </si>
+  <si>
+    <t>Circuito de condicionamento completo</t>
   </si>
 </sst>
 </file>
@@ -848,11 +851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443672512"/>
-        <c:axId val="443673688"/>
+        <c:axId val="414450256"/>
+        <c:axId val="414451040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443672512"/>
+        <c:axId val="414450256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,12 +912,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443673688"/>
+        <c:crossAx val="414451040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443673688"/>
+        <c:axId val="414451040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,7 +974,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443672512"/>
+        <c:crossAx val="414450256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1148,7 +1151,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13.3</c:v>
@@ -1277,11 +1280,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443674472"/>
-        <c:axId val="443677216"/>
+        <c:axId val="414440456"/>
+        <c:axId val="414445160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443674472"/>
+        <c:axId val="414440456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,12 +1341,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443677216"/>
+        <c:crossAx val="414445160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443677216"/>
+        <c:axId val="414445160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1403,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443674472"/>
+        <c:crossAx val="414440456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1731,11 +1734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443675256"/>
-        <c:axId val="443677608"/>
+        <c:axId val="414446336"/>
+        <c:axId val="414446728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443675256"/>
+        <c:axId val="414446336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1792,12 +1795,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443677608"/>
+        <c:crossAx val="414446728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443677608"/>
+        <c:axId val="414446728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +1857,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443675256"/>
+        <c:crossAx val="414446336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1989,14 +1992,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.3692913385826777E-2"/>
-                  <c:y val="-0.16245370370370371"/>
+                  <c:x val="0.1210916447944007"/>
+                  <c:y val="-9.8306357538641004E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2084,43 +2088,43 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7.0600000000000003E-3</c:v>
+                  <c:v>5.9500000000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37359999999999999</c:v>
+                  <c:v>0.36709999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7349</c:v>
+                  <c:v>0.72460000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.089</c:v>
+                  <c:v>1.077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4770000000000001</c:v>
+                  <c:v>1.421</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.776</c:v>
+                  <c:v>1.7609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1110000000000002</c:v>
+                  <c:v>2.0920000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.44</c:v>
+                  <c:v>2.419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.762</c:v>
+                  <c:v>2.7389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.077</c:v>
+                  <c:v>3.0539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3879999999999999</c:v>
+                  <c:v>3.3620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6930000000000001</c:v>
+                  <c:v>3.6659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9940000000000002</c:v>
+                  <c:v>3.9630000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,11 +2139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443684664"/>
-        <c:axId val="443683096"/>
+        <c:axId val="414454960"/>
+        <c:axId val="414453000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443684664"/>
+        <c:axId val="414454960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -2197,12 +2201,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443683096"/>
+        <c:crossAx val="414453000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443683096"/>
+        <c:axId val="414453000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2259,7 +2263,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="443684664"/>
+        <c:crossAx val="414454960"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4571,16 +4575,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>358775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6032,10 +6036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6044,7 +6048,7 @@
     <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6057,35 +6061,35 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>11.3</v>
       </c>
       <c r="B2" s="1">
         <v>104.4</v>
       </c>
       <c r="C2" s="2">
-        <f>(0.3875*A2)+100</f>
-        <v>100.03874999999999</v>
+        <f>(0.385*A2)+100</f>
+        <v>104.3505</v>
       </c>
       <c r="D2" s="2">
         <f>(0.3792*A2)+100.25</f>
-        <v>100.28792</v>
-      </c>
-      <c r="F2">
+        <v>104.53496</v>
+      </c>
+      <c r="E2" s="2">
         <f>((C2-D2)/($C$19-$C$2))*100</f>
-        <v>-1.2809150494795341</v>
-      </c>
-      <c r="G2" s="2">
-        <f>ABS(F2)</f>
-        <v>1.2809150494795341</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.2285048285048377</v>
+      </c>
+      <c r="F2" s="2">
+        <f>ABS(E2)</f>
+        <v>1.2285048285048377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13.3</v>
       </c>
@@ -6093,23 +6097,23 @@
         <v>105.3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C19" si="0">(0.3875*A3)+100</f>
-        <v>105.15375</v>
+        <f t="shared" ref="C3:C19" si="0">(0.385*A3)+100</f>
+        <v>105.12050000000001</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D19" si="1">(0.3792*A3)+100.25</f>
         <v>105.29336000000001</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F19" si="2">((C3-D3)/($C$19-$C$2))*100</f>
-        <v>-0.71769695411903134</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G19" si="3">ABS(F3)</f>
-        <v>0.71769695411903134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <f>((C3-D3)/($C$19-$C$2))*100</f>
+        <v>-1.1512487512487513</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F19" si="2">ABS(E3)</f>
+        <v>1.1512487512487513</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>15.8</v>
       </c>
@@ -6118,22 +6122,22 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>106.1225</v>
+        <v>106.083</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" si="1"/>
         <v>106.24136</v>
       </c>
-      <c r="F4">
+      <c r="E4" s="2">
+        <f>((C4-D4)/($C$19-$C$2))*100</f>
+        <v>-1.0546786546786668</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="2"/>
-        <v>-0.61102686030072162</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="3"/>
-        <v>0.61102686030072162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0546786546786668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18.5</v>
       </c>
@@ -6142,22 +6146,22 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>107.16875</v>
+        <v>107.1225</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="1"/>
         <v>107.26519999999999</v>
       </c>
-      <c r="F5">
+      <c r="E5" s="2">
+        <f>((C5-D5)/($C$19-$C$2))*100</f>
+        <v>-0.95038295038288845</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="2"/>
-        <v>-0.49582315897694429</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="3"/>
-        <v>0.49582315897694429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.95038295038288845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20.9</v>
       </c>
@@ -6166,22 +6170,22 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>108.09875</v>
+        <v>108.04649999999999</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>108.17528</v>
       </c>
-      <c r="F6">
+      <c r="E6" s="2">
+        <f>((C6-D6)/($C$19-$C$2))*100</f>
+        <v>-0.85767565767569842</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="2"/>
-        <v>-0.39341986891147801</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="3"/>
-        <v>0.39341986891147801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.85767565767569842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>23.4</v>
       </c>
@@ -6190,22 +6194,22 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>109.0675</v>
+        <v>109.009</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>109.12327999999999</v>
       </c>
-      <c r="F7">
+      <c r="E7" s="2">
+        <f>((C7-D7)/($C$19-$C$2))*100</f>
+        <v>-0.7611055611055193</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
-        <v>-0.28674977509316835</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="3"/>
-        <v>0.28674977509316835</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7611055611055193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>25.9</v>
       </c>
@@ -6214,22 +6218,22 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>110.03625</v>
+        <v>109.97149999999999</v>
       </c>
       <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>110.07128</v>
       </c>
-      <c r="F8">
+      <c r="E8" s="2">
+        <f>((C8-D8)/($C$19-$C$2))*100</f>
+        <v>-0.66453546453552947</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
-        <v>-0.18007968127493168</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.18007968127493168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.66453546453552947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>27.7</v>
       </c>
@@ -6238,22 +6242,22 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>110.73375</v>
+        <v>110.6645</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>110.75384</v>
       </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <f>((C9-D9)/($C$19-$C$2))*100</f>
+        <v>-0.59500499500494741</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="2"/>
-        <v>-0.10327721372572239</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
-        <v>0.10327721372572239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.59500499500494741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>29.7</v>
       </c>
@@ -6262,22 +6266,22 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>111.50875000000001</v>
+        <v>111.4345</v>
       </c>
       <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>111.51223999999999</v>
       </c>
-      <c r="F10">
+      <c r="E10" s="2">
+        <f>((C10-D10)/($C$19-$C$2))*100</f>
+        <v>-0.517748917748861</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7941138671045437E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="3"/>
-        <v>1.7941138671045437E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.517748917748861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>31.6</v>
       </c>
@@ -6286,22 +6290,22 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>112.245</v>
+        <v>112.166</v>
       </c>
       <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>112.23272</v>
       </c>
-      <c r="F11">
+      <c r="E11" s="2">
+        <f>((C11-D11)/($C$19-$C$2))*100</f>
+        <v>-0.44435564435566877</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
-        <v>6.3128132630788106E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
-        <v>6.3128132630788106E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.44435564435566877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33.799999999999997</v>
       </c>
@@ -6310,22 +6314,22 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>113.0975</v>
+        <v>113.01300000000001</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>113.06695999999999</v>
       </c>
-      <c r="F12">
+      <c r="E12" s="2">
+        <f>((C12-D12)/($C$19-$C$2))*100</f>
+        <v>-0.35937395937388844</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
-        <v>0.1569978151908597</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="3"/>
-        <v>0.1569978151908597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.35937395937388844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>35.6</v>
       </c>
@@ -6334,22 +6338,22 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>113.795</v>
+        <v>113.706</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="1"/>
         <v>113.74952</v>
       </c>
-      <c r="F13">
+      <c r="E13" s="2">
+        <f>((C13-D13)/($C$19-$C$2))*100</f>
+        <v>-0.28984348984349578</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>0.23380028273999592</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23380028273999592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.28984348984349578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>38.700000000000003</v>
       </c>
@@ -6358,22 +6362,22 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>114.99625</v>
+        <v>114.8995</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="1"/>
         <v>114.92504</v>
       </c>
-      <c r="F14">
+      <c r="E14" s="2">
+        <f>((C14-D14)/($C$19-$C$2))*100</f>
+        <v>-0.1700965700965191</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>0.36607119907470875</v>
-      </c>
-      <c r="G14" s="2">
-        <f t="shared" si="3"/>
-        <v>0.36607119907470875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1700965700965191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>41.1</v>
       </c>
@@ -6382,22 +6386,22 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>115.92625</v>
+        <v>115.8235</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="1"/>
         <v>115.83512</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="2">
+        <f>((C15-D15)/($C$19-$C$2))*100</f>
+        <v>-7.7389277389328909E-2</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>0.46847448914017498</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>0.46847448914017498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.7389277389328909E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>42.7</v>
       </c>
@@ -6406,22 +6410,22 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>116.54625</v>
+        <v>116.43950000000001</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
         <v>116.44184</v>
       </c>
-      <c r="F16">
+      <c r="E16" s="2">
+        <f>((C16-D16)/($C$19-$C$2))*100</f>
+        <v>-1.5584415584346138E-2</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>0.53674334918391653</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>0.53674334918391653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5584415584346138E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>45.2</v>
       </c>
@@ -6430,22 +6434,22 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>117.515</v>
+        <v>117.402</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
         <v>117.38983999999999</v>
       </c>
-      <c r="F17">
+      <c r="E17" s="2">
+        <f>((C17-D17)/($C$19-$C$2))*100</f>
+        <v>8.0985680985738315E-2</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>0.64341344300222625</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>0.64341344300222625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.0985680985738315E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>49.3</v>
       </c>
@@ -6454,22 +6458,22 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>119.10374999999999</v>
+        <v>118.98050000000001</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
         <v>118.94456</v>
       </c>
-      <c r="F18">
+      <c r="E18" s="2">
+        <f>((C18-D18)/($C$19-$C$2))*100</f>
+        <v>0.23936063936071092</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>0.81835239686413142</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>0.81835239686413142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.23936063936071092</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50.3</v>
       </c>
@@ -6478,25 +6482,25 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>119.49125000000001</v>
+        <v>119.3655</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
         <v>119.32375999999999</v>
       </c>
-      <c r="F19">
+      <c r="E19" s="2">
+        <f>((C19-D19)/($C$19-$C$2))*100</f>
+        <v>0.2779886779887068</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>0.86102043439154285</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>0.86102043439154285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="2">
-        <f>MAX(G2:G19)</f>
-        <v>1.2809150494795341</v>
+        <v>0.2779886779887068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <f>MAX(F2:F19)</f>
+        <v>1.2285048285048377</v>
       </c>
     </row>
   </sheetData>
@@ -6510,7 +6514,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6963,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6974,7 +6978,7 @@
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -6984,148 +6988,186 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-10</v>
       </c>
-      <c r="B2" s="1">
-        <v>96.13</v>
+      <c r="B2" s="2">
+        <f>100+(0.385*A2)</f>
+        <v>96.15</v>
       </c>
       <c r="C2" s="3">
-        <v>7.0600000000000003E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.9500000000000004E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5</v>
       </c>
-      <c r="B3" s="1">
-        <v>98.06</v>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B15" si="0">100+(0.385*A3)</f>
+        <v>98.075000000000003</v>
       </c>
       <c r="C3" s="3">
-        <v>0.37359999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.36709999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="C4" s="3">
-        <v>0.7349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.72460000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>101.84</v>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>101.925</v>
       </c>
       <c r="C5" s="3">
-        <v>1.089</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" s="1">
-        <v>103.88</v>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>103.85</v>
       </c>
       <c r="C6" s="3">
-        <v>1.4770000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
-      <c r="B7" s="1">
-        <v>105.78</v>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>105.77500000000001</v>
       </c>
       <c r="C7" s="3">
-        <v>1.776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1.7609999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
-        <v>107.75</v>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>107.7</v>
       </c>
       <c r="C8" s="3">
-        <v>2.1110000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.0920000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
-      <c r="B9" s="1">
-        <v>109.69</v>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>109.625</v>
       </c>
       <c r="C9" s="3">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>30</v>
       </c>
-      <c r="B10" s="1">
-        <v>111.63</v>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>111.55</v>
       </c>
       <c r="C10" s="3">
-        <v>2.762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.7389999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>35</v>
       </c>
-      <c r="B11" s="1">
-        <v>113.56</v>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>113.47499999999999</v>
       </c>
       <c r="C11" s="3">
-        <v>3.077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.0539999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>40</v>
       </c>
-      <c r="B12" s="1">
-        <v>115.5</v>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>115.4</v>
       </c>
       <c r="C12" s="3">
-        <v>3.3879999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>45</v>
       </c>
-      <c r="B13" s="1">
-        <v>117.44</v>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>117.325</v>
       </c>
       <c r="C13" s="3">
-        <v>3.6930000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.6659999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
-      <c r="B14" s="1">
-        <v>119.38</v>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>119.25</v>
       </c>
       <c r="C14" s="3">
-        <v>3.9940000000000002</v>
+        <v>3.9630000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>100.0385</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f>B15-B4</f>
+        <v>3.8499999999999091E-2</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C15-C4</f>
+        <v>7.3999999999999622E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor de Nível (Capacitância)" sheetId="1" r:id="rId1"/>
     <sheet name="Pt100 (Resistência)" sheetId="3" r:id="rId2"/>
     <sheet name="Pt100 (Condicionado&quot;)" sheetId="2" r:id="rId3"/>
     <sheet name="Circuito Simulado" sheetId="4" r:id="rId4"/>
+    <sheet name="Plan1" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan2" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>200nF</t>
   </si>
@@ -76,16 +78,87 @@
   <si>
     <t>Circuito de condicionamento completo</t>
   </si>
+  <si>
+    <t>17.2ºC</t>
+  </si>
+  <si>
+    <t>Tensão Saída (V)</t>
+  </si>
+  <si>
+    <t>T(ºC) - FIT</t>
+  </si>
+  <si>
+    <t>Dif (ºC)</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>dist</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>med</t>
+  </si>
+  <si>
+    <t>vel (comercial)</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>Pt100</t>
+  </si>
+  <si>
+    <t>Elinear</t>
+  </si>
+  <si>
+    <t>Usando Década</t>
+  </si>
+  <si>
+    <t>Usando Pt100</t>
+  </si>
+  <si>
+    <t>Tensão (V)</t>
+  </si>
+  <si>
+    <t>T(ºC) med</t>
+  </si>
+  <si>
+    <t>T(ºC) DAQ</t>
+  </si>
+  <si>
+    <t>y=19.8807*x+20.3101</t>
+  </si>
+  <si>
+    <t>y=20.1613*x+20.248</t>
+  </si>
+  <si>
+    <t>(pelo Pt100)</t>
+  </si>
+  <si>
+    <t>(pela década) &lt;== melhor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,17 +184,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -187,8 +267,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4603442429634005E-2"/>
-          <c:y val="2.4668327607273E-2"/>
+          <c:x val="0.10006767914320699"/>
+          <c:y val="2.5066335682991617E-2"/>
           <c:w val="0.86414028900052497"/>
           <c:h val="0.70901911967790199"/>
         </c:manualLayout>
@@ -843,6 +923,125 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sensor de Nível (Capacitância)'!$D$5:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sensor de Nível (Capacitância)'!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -851,11 +1050,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414450256"/>
-        <c:axId val="414451040"/>
+        <c:axId val="438969744"/>
+        <c:axId val="438968568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414450256"/>
+        <c:axId val="438969744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,12 +1111,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414451040"/>
+        <c:crossAx val="438968568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414451040"/>
+        <c:axId val="438968568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -974,7 +1173,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414450256"/>
+        <c:crossAx val="438969744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1280,11 +1479,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414440456"/>
-        <c:axId val="414445160"/>
+        <c:axId val="440849936"/>
+        <c:axId val="440849544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414440456"/>
+        <c:axId val="440849936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,12 +1540,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414445160"/>
+        <c:crossAx val="440849544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414445160"/>
+        <c:axId val="440849544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1403,7 +1602,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414440456"/>
+        <c:crossAx val="440849936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1467,7 +1666,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1734,11 +1932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414446336"/>
-        <c:axId val="414446728"/>
+        <c:axId val="440850720"/>
+        <c:axId val="440849152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414446336"/>
+        <c:axId val="440850720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1795,12 +1993,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414446728"/>
+        <c:crossAx val="440849152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414446728"/>
+        <c:axId val="440849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1857,7 +2055,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414446336"/>
+        <c:crossAx val="440850720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1992,6 +2190,70 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.1210916447944007"/>
+                  <c:y val="-9.8306357538641004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="1"/>
@@ -1999,8 +2261,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.1210916447944007"/>
-                  <c:y val="-9.8306357538641004E-2"/>
+                  <c:x val="0.1549805336832896"/>
+                  <c:y val="-0.15782407407407406"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2085,46 +2347,46 @@
             <c:numRef>
               <c:f>'Circuito Simulado'!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>5.9500000000000004E-4</c:v>
+                  <c:v>0.25080000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36709999999999998</c:v>
+                  <c:v>0.63480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72460000000000002</c:v>
+                  <c:v>1.0129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.077</c:v>
+                  <c:v>1.389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.421</c:v>
+                  <c:v>1.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7609999999999999</c:v>
+                  <c:v>2.129</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0920000000000001</c:v>
+                  <c:v>2.4929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.419</c:v>
+                  <c:v>2.855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7389999999999999</c:v>
+                  <c:v>3.2109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0539999999999998</c:v>
+                  <c:v>3.5659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3620000000000001</c:v>
+                  <c:v>3.9159999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6659999999999999</c:v>
+                  <c:v>4.2640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.9630000000000001</c:v>
+                  <c:v>4.6079999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,11 +2401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="414454960"/>
-        <c:axId val="414453000"/>
+        <c:axId val="440851504"/>
+        <c:axId val="440845624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="414454960"/>
+        <c:axId val="440851504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -2201,12 +2463,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414453000"/>
+        <c:crossAx val="440845624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="414453000"/>
+        <c:axId val="440845624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,7 +2488,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2263,8 +2525,1238 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414454960"/>
+        <c:crossAx val="440851504"/>
         <c:crossesAt val="-10"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10004709561877984"/>
+                  <c:y val="-8.5339384660250803E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$A$3:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$C$3:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-0.501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.7999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.054</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385103368"/>
+        <c:axId val="385102976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385103368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385102976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385102976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385103368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.34196031887948092"/>
+                  <c:y val="0.11574074074074074"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan1!$H$3:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan1!$J$3:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.16500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.628</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.202</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.506</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385104544"/>
+        <c:axId val="385100232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385104544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385100232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385100232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385104544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pt-BR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Plan2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Plan2!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.000">
+                  <c:v>0.32700000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="385079456"/>
+        <c:axId val="385075144"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="385079456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385075144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="385075144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385079456"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2472,6 +3964,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4536,20 +6148,1568 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>644621</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>81204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>505510</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>64247</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>149525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4645,16 +7805,116 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4939,15 +8199,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D5" sqref="D5:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -4957,8 +8217,11 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
@@ -4966,7 +8229,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -4974,7 +8237,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -4982,100 +8245,172 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
       <c r="B5">
         <v>4.0199999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
       <c r="B9">
         <v>6.84</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10">
         <v>7.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
       <c r="B11">
         <v>8.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12">
         <v>8.82</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>26</v>
       </c>
       <c r="B13">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>28</v>
       </c>
       <c r="B14">
         <v>10.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>30</v>
       </c>
       <c r="B15">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>32</v>
       </c>
       <c r="B16">
         <v>11.4</v>
+      </c>
+      <c r="D16">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,7 +9374,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6081,7 +9416,7 @@
         <v>104.53496</v>
       </c>
       <c r="E2" s="2">
-        <f>((C2-D2)/($C$19-$C$2))*100</f>
+        <f t="shared" ref="E2:E19" si="0">((C2-D2)/($C$19-$C$2))*100</f>
         <v>-1.2285048285048377</v>
       </c>
       <c r="F2" s="2">
@@ -6097,19 +9432,19 @@
         <v>105.3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C19" si="0">(0.385*A3)+100</f>
+        <f t="shared" ref="C3:C19" si="1">(0.385*A3)+100</f>
         <v>105.12050000000001</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D19" si="1">(0.3792*A3)+100.25</f>
+        <f t="shared" ref="D3:D19" si="2">(0.3792*A3)+100.25</f>
         <v>105.29336000000001</v>
       </c>
       <c r="E3" s="2">
-        <f>((C3-D3)/($C$19-$C$2))*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1512487512487513</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F19" si="2">ABS(E3)</f>
+        <f t="shared" ref="F3:F19" si="3">ABS(E3)</f>
         <v>1.1512487512487513</v>
       </c>
     </row>
@@ -6121,19 +9456,19 @@
         <v>106.2</v>
       </c>
       <c r="C4" s="2">
+        <f t="shared" si="1"/>
+        <v>106.083</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="2"/>
+        <v>106.24136</v>
+      </c>
+      <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>106.083</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="1"/>
-        <v>106.24136</v>
-      </c>
-      <c r="E4" s="2">
-        <f>((C4-D4)/($C$19-$C$2))*100</f>
         <v>-1.0546786546786668</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0546786546786668</v>
       </c>
     </row>
@@ -6145,19 +9480,19 @@
         <v>107.3</v>
       </c>
       <c r="C5" s="2">
+        <f t="shared" si="1"/>
+        <v>107.1225</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="2"/>
+        <v>107.26519999999999</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>107.1225</v>
-      </c>
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>107.26519999999999</v>
-      </c>
-      <c r="E5" s="2">
-        <f>((C5-D5)/($C$19-$C$2))*100</f>
         <v>-0.95038295038288845</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95038295038288845</v>
       </c>
     </row>
@@ -6169,19 +9504,19 @@
         <v>108.2</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="1"/>
+        <v>108.04649999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="2"/>
+        <v>108.17528</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>108.04649999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>108.17528</v>
-      </c>
-      <c r="E6" s="2">
-        <f>((C6-D6)/($C$19-$C$2))*100</f>
         <v>-0.85767565767569842</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85767565767569842</v>
       </c>
     </row>
@@ -6193,19 +9528,19 @@
         <v>109.2</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="1"/>
+        <v>109.009</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="2"/>
+        <v>109.12327999999999</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>109.009</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>109.12327999999999</v>
-      </c>
-      <c r="E7" s="2">
-        <f>((C7-D7)/($C$19-$C$2))*100</f>
         <v>-0.7611055611055193</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7611055611055193</v>
       </c>
     </row>
@@ -6217,19 +9552,19 @@
         <v>110.1</v>
       </c>
       <c r="C8" s="2">
+        <f t="shared" si="1"/>
+        <v>109.97149999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="2"/>
+        <v>110.07128</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>109.97149999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
-        <v>110.07128</v>
-      </c>
-      <c r="E8" s="2">
-        <f>((C8-D8)/($C$19-$C$2))*100</f>
         <v>-0.66453546453552947</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.66453546453552947</v>
       </c>
     </row>
@@ -6241,19 +9576,19 @@
         <v>110.8</v>
       </c>
       <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>110.6645</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="2"/>
+        <v>110.75384</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>110.6645</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
-        <v>110.75384</v>
-      </c>
-      <c r="E9" s="2">
-        <f>((C9-D9)/($C$19-$C$2))*100</f>
         <v>-0.59500499500494741</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.59500499500494741</v>
       </c>
     </row>
@@ -6265,19 +9600,19 @@
         <v>111.5</v>
       </c>
       <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>111.4345</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>111.51223999999999</v>
+      </c>
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>111.4345</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
-        <v>111.51223999999999</v>
-      </c>
-      <c r="E10" s="2">
-        <f>((C10-D10)/($C$19-$C$2))*100</f>
         <v>-0.517748917748861</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.517748917748861</v>
       </c>
     </row>
@@ -6289,19 +9624,19 @@
         <v>112.2</v>
       </c>
       <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>112.166</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>112.23272</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>112.166</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
-        <v>112.23272</v>
-      </c>
-      <c r="E11" s="2">
-        <f>((C11-D11)/($C$19-$C$2))*100</f>
         <v>-0.44435564435566877</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.44435564435566877</v>
       </c>
     </row>
@@ -6313,19 +9648,19 @@
         <v>113.2</v>
       </c>
       <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>113.01300000000001</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>113.06695999999999</v>
+      </c>
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>113.01300000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
-        <v>113.06695999999999</v>
-      </c>
-      <c r="E12" s="2">
-        <f>((C12-D12)/($C$19-$C$2))*100</f>
         <v>-0.35937395937388844</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.35937395937388844</v>
       </c>
     </row>
@@ -6337,19 +9672,19 @@
         <v>113.8</v>
       </c>
       <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>113.706</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>113.74952</v>
+      </c>
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>113.706</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
-        <v>113.74952</v>
-      </c>
-      <c r="E13" s="2">
-        <f>((C13-D13)/($C$19-$C$2))*100</f>
         <v>-0.28984348984349578</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.28984348984349578</v>
       </c>
     </row>
@@ -6361,19 +9696,19 @@
         <v>115</v>
       </c>
       <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>114.8995</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>114.92504</v>
+      </c>
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>114.8995</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
-        <v>114.92504</v>
-      </c>
-      <c r="E14" s="2">
-        <f>((C14-D14)/($C$19-$C$2))*100</f>
         <v>-0.1700965700965191</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1700965700965191</v>
       </c>
     </row>
@@ -6385,19 +9720,19 @@
         <v>115.8</v>
       </c>
       <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>115.8235</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>115.83512</v>
+      </c>
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>115.8235</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
-        <v>115.83512</v>
-      </c>
-      <c r="E15" s="2">
-        <f>((C15-D15)/($C$19-$C$2))*100</f>
         <v>-7.7389277389328909E-2</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.7389277389328909E-2</v>
       </c>
     </row>
@@ -6409,19 +9744,19 @@
         <v>116.4</v>
       </c>
       <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>116.43950000000001</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>116.44184</v>
+      </c>
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>116.43950000000001</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
-        <v>116.44184</v>
-      </c>
-      <c r="E16" s="2">
-        <f>((C16-D16)/($C$19-$C$2))*100</f>
         <v>-1.5584415584346138E-2</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5584415584346138E-2</v>
       </c>
     </row>
@@ -6433,19 +9768,19 @@
         <v>117.2</v>
       </c>
       <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>117.402</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>117.38983999999999</v>
+      </c>
+      <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>117.402</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
-        <v>117.38983999999999</v>
-      </c>
-      <c r="E17" s="2">
-        <f>((C17-D17)/($C$19-$C$2))*100</f>
         <v>8.0985680985738315E-2</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.0985680985738315E-2</v>
       </c>
     </row>
@@ -6457,19 +9792,19 @@
         <v>118.9</v>
       </c>
       <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>118.98050000000001</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>118.94456</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>118.98050000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>118.94456</v>
-      </c>
-      <c r="E18" s="2">
-        <f>((C18-D18)/($C$19-$C$2))*100</f>
         <v>0.23936063936071092</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.23936063936071092</v>
       </c>
     </row>
@@ -6481,19 +9816,19 @@
         <v>119.4</v>
       </c>
       <c r="C19" s="2">
+        <f t="shared" si="1"/>
+        <v>119.3655</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>119.32375999999999</v>
+      </c>
+      <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>119.3655</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>119.32375999999999</v>
-      </c>
-      <c r="E19" s="2">
-        <f>((C19-D19)/($C$19-$C$2))*100</f>
         <v>0.2779886779887068</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2779886779887068</v>
       </c>
     </row>
@@ -6969,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7000,8 +10335,8 @@
         <f>100+(0.385*A2)</f>
         <v>96.15</v>
       </c>
-      <c r="C2" s="3">
-        <v>5.9500000000000004E-4</v>
+      <c r="C2" s="4">
+        <v>0.25080000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7012,8 +10347,8 @@
         <f t="shared" ref="B3:B15" si="0">100+(0.385*A3)</f>
         <v>98.075000000000003</v>
       </c>
-      <c r="C3" s="3">
-        <v>0.36709999999999998</v>
+      <c r="C3" s="4">
+        <v>0.63480000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -7024,8 +10359,8 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C4" s="3">
-        <v>0.72460000000000002</v>
+      <c r="C4" s="4">
+        <v>1.0129999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7036,8 +10371,8 @@
         <f t="shared" si="0"/>
         <v>101.925</v>
       </c>
-      <c r="C5" s="3">
-        <v>1.077</v>
+      <c r="C5" s="4">
+        <v>1.389</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,8 +10383,8 @@
         <f t="shared" si="0"/>
         <v>103.85</v>
       </c>
-      <c r="C6" s="3">
-        <v>1.421</v>
+      <c r="C6" s="4">
+        <v>1.76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -7060,8 +10395,8 @@
         <f t="shared" si="0"/>
         <v>105.77500000000001</v>
       </c>
-      <c r="C7" s="3">
-        <v>1.7609999999999999</v>
+      <c r="C7" s="4">
+        <v>2.129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -7072,8 +10407,8 @@
         <f t="shared" si="0"/>
         <v>107.7</v>
       </c>
-      <c r="C8" s="3">
-        <v>2.0920000000000001</v>
+      <c r="C8" s="4">
+        <v>2.4929999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -7084,8 +10419,8 @@
         <f t="shared" si="0"/>
         <v>109.625</v>
       </c>
-      <c r="C9" s="3">
-        <v>2.419</v>
+      <c r="C9" s="4">
+        <v>2.855</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -7096,8 +10431,8 @@
         <f t="shared" si="0"/>
         <v>111.55</v>
       </c>
-      <c r="C10" s="3">
-        <v>2.7389999999999999</v>
+      <c r="C10" s="4">
+        <v>3.2109999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7108,8 +10443,8 @@
         <f t="shared" si="0"/>
         <v>113.47499999999999</v>
       </c>
-      <c r="C11" s="3">
-        <v>3.0539999999999998</v>
+      <c r="C11" s="4">
+        <v>3.5659999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7120,8 +10455,8 @@
         <f t="shared" si="0"/>
         <v>115.4</v>
       </c>
-      <c r="C12" s="3">
-        <v>3.3620000000000001</v>
+      <c r="C12" s="4">
+        <v>3.9159999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,8 +10467,8 @@
         <f t="shared" si="0"/>
         <v>117.325</v>
       </c>
-      <c r="C13" s="3">
-        <v>3.6659999999999999</v>
+      <c r="C13" s="4">
+        <v>4.2640000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7144,8 +10479,8 @@
         <f t="shared" si="0"/>
         <v>119.25</v>
       </c>
-      <c r="C14" s="3">
-        <v>3.9630000000000001</v>
+      <c r="C14" s="4">
+        <v>4.6079999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7156,8 +10491,8 @@
         <f t="shared" si="0"/>
         <v>100.0385</v>
       </c>
-      <c r="C15" s="3">
-        <v>0.73199999999999998</v>
+      <c r="C15" s="4">
+        <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -7167,11 +10502,908 @@
       </c>
       <c r="C17" s="3">
         <f>C15-C4</f>
-        <v>7.3999999999999622E-3</v>
+        <v>8.0000000000000071E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>11.3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>104.4</v>
+      </c>
+      <c r="C3">
+        <v>-0.501</v>
+      </c>
+      <c r="D3" s="1">
+        <f>19.8807*C3+20.3101</f>
+        <v>10.349869299999998</v>
+      </c>
+      <c r="E3" s="1">
+        <f>D3-A3</f>
+        <v>-0.95013070000000255</v>
+      </c>
+      <c r="F3" s="5">
+        <f>E3/$A$20</f>
+        <v>-1.8889278330019934E-2</v>
+      </c>
+      <c r="H3">
+        <v>5.6</v>
+      </c>
+      <c r="I3">
+        <v>5.8</v>
+      </c>
+      <c r="J3">
+        <v>-0.72699999999999998</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>13.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>105.3</v>
+      </c>
+      <c r="C4">
+        <v>-0.372</v>
+      </c>
+      <c r="D4" s="1">
+        <f>19.8807*C4+20.3101</f>
+        <v>12.914479599999998</v>
+      </c>
+      <c r="E4" s="1">
+        <f>D4-A4</f>
+        <v>-0.38552040000000254</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F20" si="0">E4/$A$20</f>
+        <v>-7.6644214711730132E-3</v>
+      </c>
+      <c r="H4">
+        <v>5.8</v>
+      </c>
+      <c r="I4">
+        <v>6.3</v>
+      </c>
+      <c r="J4">
+        <v>-0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15.8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>106.2</v>
+      </c>
+      <c r="C5">
+        <v>-0.246</v>
+      </c>
+      <c r="D5" s="1">
+        <f>19.8807*C5+20.3101</f>
+        <v>15.419447799999999</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-A5</f>
+        <v>-0.38055220000000212</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.5656500994036209E-3</v>
+      </c>
+      <c r="H5">
+        <v>6.9</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>18.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>107.3</v>
+      </c>
+      <c r="C6">
+        <v>-8.7999999999999995E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>19.8807*C6+20.3101</f>
+        <v>18.5605984</v>
+      </c>
+      <c r="E6" s="1">
+        <f>D6-A6</f>
+        <v>6.0598399999999941E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2047395626242534E-3</v>
+      </c>
+      <c r="H6">
+        <v>12.5</v>
+      </c>
+      <c r="I6">
+        <v>12.2</v>
+      </c>
+      <c r="J6">
+        <v>-0.40799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20.9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>108.2</v>
+      </c>
+      <c r="C7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f>19.8807*C7+20.3101</f>
+        <v>21.085447299999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f>D7-A7</f>
+        <v>0.18544729999999987</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6868250497017869E-3</v>
+      </c>
+      <c r="H7">
+        <v>14</v>
+      </c>
+      <c r="I7">
+        <v>13.7</v>
+      </c>
+      <c r="J7">
+        <v>-0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>23.4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>109.2</v>
+      </c>
+      <c r="C8">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <f>19.8807*C8+20.3101</f>
+        <v>23.828983899999997</v>
+      </c>
+      <c r="E8" s="1">
+        <f>D8-A8</f>
+        <v>0.42898389999999864</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>8.5285069582504702E-3</v>
+      </c>
+      <c r="H8">
+        <v>17.2</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25.9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>110.1</v>
+      </c>
+      <c r="C9">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="D9" s="1">
+        <f>19.8807*C9+20.3101</f>
+        <v>26.174906499999999</v>
+      </c>
+      <c r="E9" s="1">
+        <f>D9-A9</f>
+        <v>0.27490650000000016</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>5.4653379721670012E-3</v>
+      </c>
+      <c r="H9">
+        <v>19.3</v>
+      </c>
+      <c r="I9">
+        <v>19.3</v>
+      </c>
+      <c r="J9">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>27.7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>110.8</v>
+      </c>
+      <c r="C10">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <f>19.8807*C10+20.3101</f>
+        <v>28.202737899999999</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10-A10</f>
+        <v>0.50273789999999963</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>9.9947892644135124E-3</v>
+      </c>
+      <c r="H10">
+        <v>21.5</v>
+      </c>
+      <c r="I10">
+        <v>21.3</v>
+      </c>
+      <c r="J10">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>29.7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>111.5</v>
+      </c>
+      <c r="C11">
+        <v>0.496</v>
+      </c>
+      <c r="D11" s="1">
+        <f>19.8807*C11+20.3101</f>
+        <v>30.170927200000001</v>
+      </c>
+      <c r="E11" s="1">
+        <f>D11-A11</f>
+        <v>0.47092720000000199</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>9.3623697813121666E-3</v>
+      </c>
+      <c r="H11">
+        <v>23.5</v>
+      </c>
+      <c r="I11">
+        <v>23.5</v>
+      </c>
+      <c r="J11">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31.6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>112.2</v>
+      </c>
+      <c r="C12">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <f>19.8807*C12+20.3101</f>
+        <v>31.860786699999998</v>
+      </c>
+      <c r="E12" s="1">
+        <f>D12-A12</f>
+        <v>0.26078669999999704</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>5.1846262425446731E-3</v>
+      </c>
+      <c r="H12">
+        <v>25.2</v>
+      </c>
+      <c r="I12">
+        <v>25.5</v>
+      </c>
+      <c r="J12">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="B13" s="1">
+        <v>113.2</v>
+      </c>
+      <c r="C13">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="D13" s="1">
+        <f>19.8807*C13+20.3101</f>
+        <v>34.485039099999995</v>
+      </c>
+      <c r="E13" s="1">
+        <f>D13-A13</f>
+        <v>0.68503909999999735</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3619067594433348E-2</v>
+      </c>
+      <c r="H13">
+        <v>26.7</v>
+      </c>
+      <c r="I13">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35.6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>113.8</v>
+      </c>
+      <c r="C14">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D14" s="1">
+        <f>19.8807*C14+20.3101</f>
+        <v>36.095375799999999</v>
+      </c>
+      <c r="E14" s="1">
+        <f>D14-A14</f>
+        <v>0.49537579999999792</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>9.8484254473160619E-3</v>
+      </c>
+      <c r="H14">
+        <v>28.3</v>
+      </c>
+      <c r="I14">
+        <v>28.7</v>
+      </c>
+      <c r="J14">
+        <v>0.42199999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="B15" s="1">
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <f>19.8807*C15+20.3101</f>
+        <v>39.077480800000004</v>
+      </c>
+      <c r="E15" s="1">
+        <f>D15-A15</f>
+        <v>0.37748080000000073</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>7.5045884691849057E-3</v>
+      </c>
+      <c r="H15">
+        <v>30.8</v>
+      </c>
+      <c r="I15">
+        <v>31.1</v>
+      </c>
+      <c r="J15">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>41.1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>115.8</v>
+      </c>
+      <c r="C16">
+        <v>1.054</v>
+      </c>
+      <c r="D16" s="1">
+        <f>19.8807*C16+20.3101</f>
+        <v>41.264357799999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f>D16-A16</f>
+        <v>0.16435779999999767</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2675506958250037E-3</v>
+      </c>
+      <c r="H16">
+        <v>32.6</v>
+      </c>
+      <c r="I16">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="J16">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>42.7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>116.4</v>
+      </c>
+      <c r="C17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D17" s="1">
+        <f>19.8807*C17+20.3101</f>
+        <v>42.576484000000001</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17-A17</f>
+        <v>-0.12351600000000218</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>-2.4555864811133636E-3</v>
+      </c>
+      <c r="H17">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="I17">
+        <v>34.4</v>
+      </c>
+      <c r="J17">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45.2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>117.2</v>
+      </c>
+      <c r="C18">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="D18" s="1">
+        <f>19.8807*C18+20.3101</f>
+        <v>44.504911899999996</v>
+      </c>
+      <c r="E18" s="1">
+        <f>D18-A18</f>
+        <v>-0.69508810000000665</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.3818848906560769E-2</v>
+      </c>
+      <c r="H18">
+        <v>35.4</v>
+      </c>
+      <c r="I18">
+        <v>35.5</v>
+      </c>
+      <c r="J18">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>49.3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>118.9</v>
+      </c>
+      <c r="C19">
+        <v>1.43</v>
+      </c>
+      <c r="D19" s="1">
+        <f>19.8807*C19+20.3101</f>
+        <v>48.739500999999997</v>
+      </c>
+      <c r="E19" s="1">
+        <f>D19-A19</f>
+        <v>-0.56049900000000008</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>-1.1143121272365808E-2</v>
+      </c>
+      <c r="H19">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>37.9</v>
+      </c>
+      <c r="J19">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50.3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>119.4</v>
+      </c>
+      <c r="C20">
+        <v>1.49</v>
+      </c>
+      <c r="D20" s="1">
+        <f>19.8807*C20+20.3101</f>
+        <v>49.932343000000003</v>
+      </c>
+      <c r="E20" s="1">
+        <f>D20-A20</f>
+        <v>-0.36765699999999413</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>-7.3092842942344763E-3</v>
+      </c>
+      <c r="H20">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="I20">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="J20">
+        <v>0.97799999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>42.1</v>
+      </c>
+      <c r="I21">
+        <v>42.3</v>
+      </c>
+      <c r="J21">
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>44.2</v>
+      </c>
+      <c r="I22">
+        <v>44.6</v>
+      </c>
+      <c r="J22">
+        <v>1.202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>47.1</v>
+      </c>
+      <c r="I23">
+        <v>47.1</v>
+      </c>
+      <c r="J23">
+        <v>1.2869999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>48.9</v>
+      </c>
+      <c r="I24">
+        <v>47.8</v>
+      </c>
+      <c r="J24">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>50.3</v>
+      </c>
+      <c r="I25">
+        <v>51.3</v>
+      </c>
+      <c r="J25">
+        <v>1.506</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>0.72</v>
+      </c>
+      <c r="E2">
+        <v>3.11</v>
+      </c>
+      <c r="F2">
+        <f>C2-E2</f>
+        <v>0.98999999999999977</v>
+      </c>
+      <c r="G2">
+        <f>(14.6997-16.5017*D2)</f>
+        <v>2.8184760000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>4.5</v>
+      </c>
+      <c r="D3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="E3">
+        <v>5.79</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="0">C3-E3</f>
+        <v>-1.29</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="1">(14.6997-16.5017*D3)</f>
+        <v>4.9471953000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>5.7</v>
+      </c>
+      <c r="D4">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="E4">
+        <v>5.47</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>5.8712904999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>6.9</v>
+      </c>
+      <c r="D5">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="E5">
+        <v>7.7</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>7.7524843000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>7.3</v>
+      </c>
+      <c r="D6">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="E6">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.8199999999999994</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.9009996000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>10.1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>9.3036440999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D7">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="1200" yWindow="840" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sensor de Nível (Capacitância)" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>200nF</t>
   </si>
@@ -182,15 +182,67 @@
   <si>
     <t>FT Saida</t>
   </si>
+  <si>
+    <t>Tensão Teorica</t>
+  </si>
+  <si>
+    <t>Erro lin</t>
+  </si>
+  <si>
+    <t>FT offset</t>
+  </si>
+  <si>
+    <t>Erro lin offset</t>
+  </si>
+  <si>
+    <t>Potência</t>
+  </si>
+  <si>
+    <t>Distância (cm)</t>
+  </si>
+  <si>
+    <t>Vel_comercial (m/s)</t>
+  </si>
+  <si>
+    <t>Período observado (s)</t>
+  </si>
+  <si>
+    <t>y1=14.6997-16.5017*x</t>
+  </si>
+  <si>
+    <t>y2=15.0118-16.8067*x</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>RPM</t>
+  </si>
+  <si>
+    <t>Vel_ft</t>
+  </si>
+  <si>
+    <t>V_tan</t>
+  </si>
+  <si>
+    <t>Rel (V_ft/V_tan)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -229,17 +281,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,11 +1145,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432318344"/>
-        <c:axId val="432324224"/>
+        <c:axId val="422420640"/>
+        <c:axId val="422424560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432318344"/>
+        <c:axId val="422420640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,12 +1206,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432324224"/>
+        <c:crossAx val="422424560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432324224"/>
+        <c:axId val="422424560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1268,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432318344"/>
+        <c:crossAx val="422420640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1551,11 +1604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489008504"/>
-        <c:axId val="489015168"/>
+        <c:axId val="472127200"/>
+        <c:axId val="472136608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489008504"/>
+        <c:axId val="472127200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,12 +1665,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489015168"/>
+        <c:crossAx val="472136608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489015168"/>
+        <c:axId val="472136608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1727,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489008504"/>
+        <c:crossAx val="472127200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2010,11 +2063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489016344"/>
-        <c:axId val="489011640"/>
+        <c:axId val="472130728"/>
+        <c:axId val="472127592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489016344"/>
+        <c:axId val="472130728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2071,12 +2124,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489011640"/>
+        <c:crossAx val="472127592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489011640"/>
+        <c:axId val="472127592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2133,7 +2186,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489016344"/>
+        <c:crossAx val="472130728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2444,11 +2497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489023792"/>
-        <c:axId val="489020656"/>
+        <c:axId val="472129944"/>
+        <c:axId val="472129160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489023792"/>
+        <c:axId val="472129944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,12 +2558,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489020656"/>
+        <c:crossAx val="472129160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489020656"/>
+        <c:axId val="472129160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489023792"/>
+        <c:crossAx val="472129944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2705,10 +2758,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.3088363954505681E-2"/>
+                  <c:y val="-0.5185097696121318"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2782,7 +2840,7 @@
                   <c:v>0.53500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.47599999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.41199999999999998</c:v>
@@ -2803,11 +2861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432322656"/>
-        <c:axId val="432326576"/>
+        <c:axId val="472127984"/>
+        <c:axId val="472131904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432322656"/>
+        <c:axId val="472127984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,12 +2922,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432326576"/>
+        <c:crossAx val="472131904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432326576"/>
+        <c:axId val="472131904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432322656"/>
+        <c:crossAx val="472127984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2990,7 +3048,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3065,7 +3122,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3232,11 +3288,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432321872"/>
-        <c:axId val="432317560"/>
+        <c:axId val="422422208"/>
+        <c:axId val="422431616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432321872"/>
+        <c:axId val="422422208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,12 +3349,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432317560"/>
+        <c:crossAx val="422431616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432317560"/>
+        <c:axId val="422431616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,7 +3411,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432321872"/>
+        <c:crossAx val="422422208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3419,7 +3475,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3686,11 +3741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432317952"/>
-        <c:axId val="432320696"/>
+        <c:axId val="422426912"/>
+        <c:axId val="422421424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432317952"/>
+        <c:axId val="422426912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3747,12 +3802,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432320696"/>
+        <c:crossAx val="422421424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432320696"/>
+        <c:axId val="422421424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3864,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432317952"/>
+        <c:crossAx val="422426912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3873,7 +3928,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4154,11 +4208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432325792"/>
-        <c:axId val="432319128"/>
+        <c:axId val="422421032"/>
+        <c:axId val="422421816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432325792"/>
+        <c:axId val="422421032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -4216,12 +4270,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432319128"/>
+        <c:crossAx val="422421816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432319128"/>
+        <c:axId val="422421816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4278,7 +4332,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432325792"/>
+        <c:crossAx val="422421032"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4591,11 +4645,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432327360"/>
-        <c:axId val="432322264"/>
+        <c:axId val="422427304"/>
+        <c:axId val="422428088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432327360"/>
+        <c:axId val="422427304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4652,12 +4706,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432322264"/>
+        <c:crossAx val="422428088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432322264"/>
+        <c:axId val="422428088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4714,7 +4768,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432327360"/>
+        <c:crossAx val="422427304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5026,11 +5080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432325008"/>
-        <c:axId val="432316384"/>
+        <c:axId val="472134648"/>
+        <c:axId val="472136216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432325008"/>
+        <c:axId val="472134648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5087,12 +5141,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432316384"/>
+        <c:crossAx val="472136216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432316384"/>
+        <c:axId val="472136216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,7 +5203,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432325008"/>
+        <c:crossAx val="472134648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5471,11 +5525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483858376"/>
-        <c:axId val="483857200"/>
+        <c:axId val="472125240"/>
+        <c:axId val="472134256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483858376"/>
+        <c:axId val="472125240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5532,12 +5586,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483857200"/>
+        <c:crossAx val="472134256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483857200"/>
+        <c:axId val="472134256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5594,7 +5648,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483858376"/>
+        <c:crossAx val="472125240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5942,11 +5996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489020264"/>
-        <c:axId val="489030456"/>
+        <c:axId val="472135432"/>
+        <c:axId val="472126416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489020264"/>
+        <c:axId val="472135432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,12 +6057,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489030456"/>
+        <c:crossAx val="472126416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489030456"/>
+        <c:axId val="472126416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6065,7 +6119,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489020264"/>
+        <c:crossAx val="472135432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6315,7 +6369,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Plan1!$P$3:$P$25</c:f>
+              <c:f>Plan1!$Q$3:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="23"/>
@@ -6401,11 +6455,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="489031632"/>
-        <c:axId val="489021048"/>
+        <c:axId val="472135824"/>
+        <c:axId val="472126808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="489031632"/>
+        <c:axId val="472135824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,12 +6516,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489021048"/>
+        <c:crossAx val="472126808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489021048"/>
+        <c:axId val="472126808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6524,7 +6578,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489031632"/>
+        <c:crossAx val="472135824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13945,13 +13999,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -13975,13 +14029,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
@@ -14005,13 +14059,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
@@ -14035,13 +14089,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
@@ -14065,16 +14119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16855,11 +16909,11 @@
         <v>-1.498</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="1">0.0546*A3-1.1869</f>
+        <f t="shared" ref="D3:D14" si="1">0.0546*A3-1.1869</f>
         <v>-1.4599000000000002</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E15" si="2">18.315*C3+21.7381</f>
+        <f t="shared" ref="E3:E14" si="2">18.315*C3+21.7381</f>
         <v>-5.697770000000002</v>
       </c>
       <c r="G3" t="s">
@@ -17098,7 +17152,7 @@
         <v>100.0385</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -17115,10 +17169,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="P2" activeCellId="2" sqref="I2:I25 K2:K25 P2:P25"/>
+    <sheetView topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17128,23 +17182,28 @@
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
       <c r="I1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N1" s="3">
+        <f>M26-L26</f>
+        <v>-4.1317391304347639E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -17178,17 +17237,29 @@
       <c r="L2" t="s">
         <v>46</v>
       </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
       <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
         <v>47</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11.3</v>
       </c>
@@ -17196,18 +17267,18 @@
         <v>104.4</v>
       </c>
       <c r="C3" s="1">
-        <f>100.25+(0.3792*A3)</f>
+        <f t="shared" ref="C3:C20" si="0">100.25+(0.3792*A3)</f>
         <v>104.53496</v>
       </c>
       <c r="D3">
         <v>-0.501</v>
       </c>
       <c r="E3" s="1">
-        <f>19.8807*D3+20.3101</f>
+        <f t="shared" ref="E3:E20" si="1">19.8807*D3+20.3101</f>
         <v>10.349869299999998</v>
       </c>
       <c r="F3" s="1">
-        <f>E3-A3</f>
+        <f t="shared" ref="F3:F20" si="2">E3-A3</f>
         <v>-0.95013070000000255</v>
       </c>
       <c r="G3" s="5">
@@ -17231,22 +17302,30 @@
         <f>0.0546*I3-1.1869</f>
         <v>-0.88114000000000003</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
+        <f>L3+$N$1</f>
+        <v>-0.7678573913043476</v>
+      </c>
+      <c r="O3" s="1">
         <f>(L3-M3)/$M$25*100</f>
         <v>9.9135609305666055</v>
       </c>
       <c r="P3" s="1">
+        <f>(N3-M3)/$M$25*100</f>
+        <v>7.2641270613058486</v>
+      </c>
+      <c r="Q3" s="1">
         <f>K3/805*1000</f>
         <v>-0.90310559006211177</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>34</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13.3</v>
       </c>
@@ -17254,22 +17333,22 @@
         <v>105.3</v>
       </c>
       <c r="C4" s="1">
-        <f>100.25+(0.3792*A4)</f>
+        <f t="shared" si="0"/>
         <v>105.29336000000001</v>
       </c>
       <c r="D4">
         <v>-0.372</v>
       </c>
       <c r="E4" s="1">
-        <f>19.8807*D4+20.3101</f>
+        <f t="shared" si="1"/>
         <v>12.914479599999998</v>
       </c>
       <c r="F4" s="1">
-        <f>E4-A4</f>
+        <f t="shared" si="2"/>
         <v>-0.38552040000000254</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G20" si="0">F4/$A$20</f>
+        <f t="shared" ref="G4:G20" si="3">F4/$A$20</f>
         <v>-7.6644214711730132E-3</v>
       </c>
       <c r="I4">
@@ -17282,23 +17361,31 @@
         <v>-0.70199999999999996</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L25" si="1">0.0496*I4-1.0043</f>
+        <f t="shared" ref="L4:L25" si="4">0.0496*I4-1.0043</f>
         <v>-0.71662000000000003</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" ref="M4:M25" si="2">0.0546*I4-1.1869</f>
+        <f t="shared" ref="M4:M25" si="5">0.0546*I4-1.1869</f>
         <v>-0.87021999999999999</v>
       </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N25" si="3">(L4-M4)/$M$25*100</f>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N26" si="6">L4+$N$1</f>
+        <v>-0.75793739130434767</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" ref="O4:O25" si="7">(L4-M4)/$M$25*100</f>
         <v>9.8494369918177842</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4:P25" si="4">K4/805*1000</f>
+        <f t="shared" ref="P4:P25" si="8">(N4-M4)/$M$25*100</f>
+        <v>7.2000031225570273</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" ref="Q4:Q25" si="9">K4/805*1000</f>
         <v>-0.8720496894409937</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15.8</v>
       </c>
@@ -17306,22 +17393,22 @@
         <v>106.2</v>
       </c>
       <c r="C5" s="1">
-        <f>100.25+(0.3792*A5)</f>
+        <f t="shared" si="0"/>
         <v>106.24136</v>
       </c>
       <c r="D5">
         <v>-0.246</v>
       </c>
       <c r="E5" s="1">
-        <f>19.8807*D5+20.3101</f>
+        <f t="shared" si="1"/>
         <v>15.419447799999999</v>
       </c>
       <c r="F5" s="1">
-        <f>E5-A5</f>
+        <f t="shared" si="2"/>
         <v>-0.38055220000000212</v>
       </c>
       <c r="G5" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.5656500994036209E-3</v>
       </c>
       <c r="I5">
@@ -17334,23 +17421,31 @@
         <v>-0.67</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.66205999999999998</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.81015999999999999</v>
       </c>
-      <c r="N5" s="1">
-        <f t="shared" si="3"/>
+      <c r="N5" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.70337739130434762</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="7"/>
         <v>9.4967553286993116</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>6.8473214594385556</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="9"/>
         <v>-0.83229813664596275</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18.5</v>
       </c>
@@ -17358,22 +17453,22 @@
         <v>107.3</v>
       </c>
       <c r="C6" s="1">
-        <f>100.25+(0.3792*A6)</f>
+        <f t="shared" si="0"/>
         <v>107.26519999999999</v>
       </c>
       <c r="D6">
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="E6" s="1">
-        <f>19.8807*D6+20.3101</f>
+        <f t="shared" si="1"/>
         <v>18.5605984</v>
       </c>
       <c r="F6" s="1">
-        <f>E6-A6</f>
+        <f t="shared" si="2"/>
         <v>6.0598399999999941E-2</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.2047395626242534E-3</v>
       </c>
       <c r="I6">
@@ -17386,23 +17481,31 @@
         <v>-0.40799999999999997</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.38429999999999997</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.50440000000000007</v>
       </c>
-      <c r="N6" s="1">
-        <f t="shared" si="3"/>
+      <c r="N6" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.42561739130434761</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="7"/>
         <v>7.7012850437325335</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>5.0518511744717767</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="9"/>
         <v>-0.50683229813664599</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20.9</v>
       </c>
@@ -17410,22 +17513,22 @@
         <v>108.2</v>
       </c>
       <c r="C7" s="1">
-        <f>100.25+(0.3792*A7)</f>
+        <f t="shared" si="0"/>
         <v>108.17528</v>
       </c>
       <c r="D7">
         <v>3.9E-2</v>
       </c>
       <c r="E7" s="1">
-        <f>19.8807*D7+20.3101</f>
+        <f t="shared" si="1"/>
         <v>21.085447299999998</v>
       </c>
       <c r="F7" s="1">
-        <f>E7-A7</f>
+        <f t="shared" si="2"/>
         <v>0.18544729999999987</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.6868250497017869E-3</v>
       </c>
       <c r="I7">
@@ -17438,23 +17541,31 @@
         <v>-0.33100000000000002</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.30989999999999995</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.42249999999999999</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" si="3"/>
+      <c r="N7" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.35121739130434759</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="7"/>
         <v>7.2203555031164264</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>4.5709216338556704</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="9"/>
         <v>-0.41118012422360251</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>23.4</v>
       </c>
@@ -17462,22 +17573,22 @@
         <v>109.2</v>
       </c>
       <c r="C8" s="1">
-        <f>100.25+(0.3792*A8)</f>
+        <f t="shared" si="0"/>
         <v>109.12327999999999</v>
       </c>
       <c r="D8">
         <v>0.17699999999999999</v>
       </c>
       <c r="E8" s="1">
-        <f>19.8807*D8+20.3101</f>
+        <f t="shared" si="1"/>
         <v>23.828983899999997</v>
       </c>
       <c r="F8" s="1">
-        <f>E8-A8</f>
+        <f t="shared" si="2"/>
         <v>0.42898389999999864</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.5285069582504702E-3</v>
       </c>
       <c r="I8">
@@ -17490,23 +17601,31 @@
         <v>-0.16500000000000001</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.15117999999999998</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.24778000000000011</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="3"/>
+      <c r="N8" s="3">
+        <f t="shared" si="6"/>
+        <v>-0.19249739130434762</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="7"/>
         <v>6.1943724831354139</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>3.544938613874657</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="9"/>
         <v>-0.20496894409937891</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25.9</v>
       </c>
@@ -17514,22 +17633,22 @@
         <v>110.1</v>
       </c>
       <c r="C9" s="1">
-        <f>100.25+(0.3792*A9)</f>
+        <f t="shared" si="0"/>
         <v>110.07128</v>
       </c>
       <c r="D9">
         <v>0.29499999999999998</v>
       </c>
       <c r="E9" s="1">
-        <f>19.8807*D9+20.3101</f>
+        <f t="shared" si="1"/>
         <v>26.174906499999999</v>
       </c>
       <c r="F9" s="1">
-        <f>E9-A9</f>
+        <f t="shared" si="2"/>
         <v>0.27490650000000016</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.4653379721670012E-3</v>
       </c>
       <c r="I9">
@@ -17542,23 +17661,31 @@
         <v>-5.1999999999999998E-2</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-4.7019999999999951E-2</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-0.13311999999999991</v>
       </c>
-      <c r="N9" s="1">
-        <f t="shared" si="3"/>
+      <c r="N9" s="3">
+        <f t="shared" si="6"/>
+        <v>-8.833739130434759E-2</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="7"/>
         <v>5.521071126272858</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>2.8716372570121016</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="9"/>
         <v>-6.4596273291925452E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>27.7</v>
       </c>
@@ -17566,22 +17693,22 @@
         <v>110.8</v>
       </c>
       <c r="C10" s="1">
-        <f>100.25+(0.3792*A10)</f>
+        <f t="shared" si="0"/>
         <v>110.75384</v>
       </c>
       <c r="D10">
         <v>0.39700000000000002</v>
       </c>
       <c r="E10" s="1">
-        <f>19.8807*D10+20.3101</f>
+        <f t="shared" si="1"/>
         <v>28.202737899999999</v>
       </c>
       <c r="F10" s="1">
-        <f>E10-A10</f>
+        <f t="shared" si="2"/>
         <v>0.50273789999999963</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.9947892644135124E-3</v>
       </c>
       <c r="I10">
@@ -17594,23 +17721,31 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.2100000000000044E-2</v>
       </c>
       <c r="M10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-1.2999999999999901E-2</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" si="3"/>
+      <c r="N10" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0782608695652405E-2</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="7"/>
         <v>4.8157078000359066</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>2.1662739307751502</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="9"/>
         <v>7.3291925465838501E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>29.7</v>
       </c>
@@ -17618,22 +17753,22 @@
         <v>111.5</v>
       </c>
       <c r="C11" s="1">
-        <f>100.25+(0.3792*A11)</f>
+        <f t="shared" si="0"/>
         <v>111.51223999999999</v>
       </c>
       <c r="D11">
         <v>0.496</v>
       </c>
       <c r="E11" s="1">
-        <f>19.8807*D11+20.3101</f>
+        <f t="shared" si="1"/>
         <v>30.170927200000001</v>
       </c>
       <c r="F11" s="1">
-        <f>E11-A11</f>
+        <f t="shared" si="2"/>
         <v>0.47092720000000199</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.3623697813121666E-3</v>
       </c>
       <c r="I11">
@@ -17646,23 +17781,31 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1613</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>9.6200000000000063E-2</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="3"/>
+      <c r="N11" s="3">
+        <f t="shared" si="6"/>
+        <v>0.11998260869565236</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="7"/>
         <v>4.1744684125477685</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>1.5250345432870123</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="9"/>
         <v>0.20124223602484473</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>31.6</v>
       </c>
@@ -17670,22 +17813,22 @@
         <v>112.2</v>
       </c>
       <c r="C12" s="1">
-        <f>100.25+(0.3792*A12)</f>
+        <f t="shared" si="0"/>
         <v>112.23272</v>
       </c>
       <c r="D12">
         <v>0.58099999999999996</v>
       </c>
       <c r="E12" s="1">
-        <f>19.8807*D12+20.3101</f>
+        <f t="shared" si="1"/>
         <v>31.860786699999998</v>
       </c>
       <c r="F12" s="1">
-        <f>E12-A12</f>
+        <f t="shared" si="2"/>
         <v>0.26078669999999704</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.1846262425446731E-3</v>
       </c>
       <c r="I12">
@@ -17698,23 +17841,31 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24561999999999995</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18901999999999997</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="3"/>
+      <c r="N12" s="3">
+        <f t="shared" si="6"/>
+        <v>0.20430260869565231</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="7"/>
         <v>3.6294149331828556</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>0.97998106392209872</v>
+      </c>
+      <c r="Q12" s="1">
+        <f t="shared" si="9"/>
         <v>0.32173913043478264</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>33.799999999999997</v>
       </c>
@@ -17722,22 +17873,22 @@
         <v>113.2</v>
       </c>
       <c r="C13" s="1">
-        <f>100.25+(0.3792*A13)</f>
+        <f t="shared" si="0"/>
         <v>113.06695999999999</v>
       </c>
       <c r="D13">
         <v>0.71299999999999997</v>
       </c>
       <c r="E13" s="1">
-        <f>19.8807*D13+20.3101</f>
+        <f t="shared" si="1"/>
         <v>34.485039099999995</v>
       </c>
       <c r="F13" s="1">
-        <f>E13-A13</f>
+        <f t="shared" si="2"/>
         <v>0.68503909999999735</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.3619067594433348E-2</v>
       </c>
       <c r="I13">
@@ -17750,23 +17901,31 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32001999999999997</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.27092000000000005</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="3"/>
+      <c r="N13" s="3">
+        <f t="shared" si="6"/>
+        <v>0.27870260869565233</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="7"/>
         <v>3.1484853925667489</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>0.49905152330599195</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="9"/>
         <v>0.41614906832298137</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>35.6</v>
       </c>
@@ -17774,22 +17933,22 @@
         <v>113.8</v>
       </c>
       <c r="C14" s="1">
-        <f>100.25+(0.3792*A14)</f>
+        <f t="shared" si="0"/>
         <v>113.74952</v>
       </c>
       <c r="D14">
         <v>0.79400000000000004</v>
       </c>
       <c r="E14" s="1">
-        <f>19.8807*D14+20.3101</f>
+        <f t="shared" si="1"/>
         <v>36.095375799999999</v>
       </c>
       <c r="F14" s="1">
-        <f>E14-A14</f>
+        <f t="shared" si="2"/>
         <v>0.49537579999999792</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>9.8484254473160619E-3</v>
       </c>
       <c r="I14">
@@ -17802,23 +17961,31 @@
         <v>0.42199999999999999</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39938000000000007</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.35828000000000015</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="3"/>
+      <c r="N14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.35806260869565243</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="7"/>
         <v>2.6354938825762382</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-1.3939986684518235E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="9"/>
         <v>0.52422360248447197</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38.700000000000003</v>
       </c>
@@ -17826,22 +17993,22 @@
         <v>115</v>
       </c>
       <c r="C15" s="1">
-        <f>100.25+(0.3792*A15)</f>
+        <f t="shared" si="0"/>
         <v>114.92504</v>
       </c>
       <c r="D15">
         <v>0.94399999999999995</v>
       </c>
       <c r="E15" s="1">
-        <f>19.8807*D15+20.3101</f>
+        <f t="shared" si="1"/>
         <v>39.077480800000004</v>
       </c>
       <c r="F15" s="1">
-        <f>E15-A15</f>
+        <f t="shared" si="2"/>
         <v>0.37748080000000073</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.5045884691849057E-3</v>
       </c>
       <c r="I15">
@@ -17854,23 +18021,31 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.52337999999999996</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.49478</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="3"/>
+      <c r="N15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.48206260869565232</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" si="7"/>
         <v>1.8339446482160695</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-0.81548922104468691</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="9"/>
         <v>0.67329192546583849</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>41.1</v>
       </c>
@@ -17878,22 +18053,22 @@
         <v>115.8</v>
       </c>
       <c r="C16" s="1">
-        <f>100.25+(0.3792*A16)</f>
+        <f t="shared" si="0"/>
         <v>115.83512</v>
       </c>
       <c r="D16">
         <v>1.054</v>
       </c>
       <c r="E16" s="1">
-        <f>19.8807*D16+20.3101</f>
+        <f t="shared" si="1"/>
         <v>41.264357799999999</v>
       </c>
       <c r="F16" s="1">
-        <f>E16-A16</f>
+        <f t="shared" si="2"/>
         <v>0.16435779999999767</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2675506958250037E-3</v>
       </c>
       <c r="I16">
@@ -17906,23 +18081,31 @@
         <v>0.628</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.61265999999999998</v>
       </c>
       <c r="M16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.59306000000000014</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="3"/>
+      <c r="N16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.57134260869565234</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="7"/>
         <v>1.2568291994767384</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-1.392604669784018</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="9"/>
         <v>0.78012422360248446</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>42.7</v>
       </c>
@@ -17930,22 +18113,22 @@
         <v>116.4</v>
       </c>
       <c r="C17" s="1">
-        <f>100.25+(0.3792*A17)</f>
+        <f t="shared" si="0"/>
         <v>116.44184</v>
       </c>
       <c r="D17">
         <v>1.1200000000000001</v>
       </c>
       <c r="E17" s="1">
-        <f>19.8807*D17+20.3101</f>
+        <f t="shared" si="1"/>
         <v>42.576484000000001</v>
       </c>
       <c r="F17" s="1">
-        <f>E17-A17</f>
+        <f t="shared" si="2"/>
         <v>-0.12351600000000218</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-2.4555864811133636E-3</v>
       </c>
       <c r="I17">
@@ -17958,23 +18141,31 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.69202000000000008</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.68042000000000025</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="3"/>
+      <c r="N17" s="3">
+        <f t="shared" si="6"/>
+        <v>0.65070260869565244</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="7"/>
         <v>0.74383768948622841</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-1.9055961797745282</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="9"/>
         <v>0.88074534161490681</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>45.2</v>
       </c>
@@ -17982,22 +18173,22 @@
         <v>117.2</v>
       </c>
       <c r="C18" s="1">
-        <f>100.25+(0.3792*A18)</f>
+        <f t="shared" si="0"/>
         <v>117.38983999999999</v>
       </c>
       <c r="D18">
         <v>1.2170000000000001</v>
       </c>
       <c r="E18" s="1">
-        <f>19.8807*D18+20.3101</f>
+        <f t="shared" si="1"/>
         <v>44.504911899999996</v>
       </c>
       <c r="F18" s="1">
-        <f>E18-A18</f>
+        <f t="shared" si="2"/>
         <v>-0.69508810000000665</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.3818848906560769E-2</v>
       </c>
       <c r="I18">
@@ -18010,23 +18201,31 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.75153999999999987</v>
       </c>
       <c r="M18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.74594000000000005</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="3"/>
+      <c r="N18" s="3">
+        <f t="shared" si="6"/>
+        <v>0.71022260869565224</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="7"/>
         <v>0.35909405699334573</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-2.290339812267411</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="9"/>
         <v>0.9503105590062112</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>49.3</v>
       </c>
@@ -18034,22 +18233,22 @@
         <v>118.9</v>
       </c>
       <c r="C19" s="1">
-        <f>100.25+(0.3792*A19)</f>
+        <f t="shared" si="0"/>
         <v>118.94456</v>
       </c>
       <c r="D19">
         <v>1.43</v>
       </c>
       <c r="E19" s="1">
-        <f>19.8807*D19+20.3101</f>
+        <f t="shared" si="1"/>
         <v>48.739500999999997</v>
       </c>
       <c r="F19" s="1">
-        <f>E19-A19</f>
+        <f t="shared" si="2"/>
         <v>-0.56049900000000008</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-1.1143121272365808E-2</v>
       </c>
       <c r="I19">
@@ -18062,23 +18261,31 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.88050000000000006</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.88790000000000013</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" si="3"/>
+      <c r="N19" s="3">
+        <f t="shared" si="6"/>
+        <v>0.83918260869565242</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="7"/>
         <v>-0.47451714674122619</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-3.1239510160019828</v>
+      </c>
+      <c r="Q19" s="1">
+        <f t="shared" si="9"/>
         <v>1.1031055900621118</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50.3</v>
       </c>
@@ -18086,22 +18293,22 @@
         <v>119.4</v>
       </c>
       <c r="C20" s="1">
-        <f>100.25+(0.3792*A20)</f>
+        <f t="shared" si="0"/>
         <v>119.32375999999999</v>
       </c>
       <c r="D20">
         <v>1.49</v>
       </c>
       <c r="E20" s="1">
-        <f>19.8807*D20+20.3101</f>
+        <f t="shared" si="1"/>
         <v>49.932343000000003</v>
       </c>
       <c r="F20" s="1">
-        <f>E20-A20</f>
+        <f t="shared" si="2"/>
         <v>-0.36765699999999413</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>-7.3092842942344763E-3</v>
       </c>
       <c r="I20">
@@ -18114,23 +18321,31 @@
         <v>0.97799999999999998</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.96977999999999986</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.98618000000000006</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="3"/>
+      <c r="N20" s="3">
+        <f t="shared" si="6"/>
+        <v>0.92846260869565223</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="7"/>
         <v>-1.0516325954805572</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-3.7010664647413134</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="9"/>
         <v>1.2149068322981367</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I21">
         <v>42.1</v>
       </c>
@@ -18141,23 +18356,31 @@
         <v>1.093</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0838599999999998</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1117600000000003</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="3"/>
+      <c r="N21" s="3">
+        <f t="shared" si="6"/>
+        <v>1.0425426086956522</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="7"/>
         <v>-1.7890578910919335</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-4.4384917603526901</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="9"/>
         <v>1.3577639751552795</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I22">
         <v>44.2</v>
       </c>
@@ -18168,23 +18391,31 @@
         <v>1.202</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1880200000000001</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.2264200000000001</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="3"/>
+      <c r="N22" s="3">
+        <f t="shared" si="6"/>
+        <v>1.1467026086956524</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="7"/>
         <v>-2.4623592479544461</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-5.1117931172152025</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="9"/>
         <v>1.493167701863354</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>47.1</v>
       </c>
@@ -18195,23 +18426,31 @@
         <v>1.2869999999999999</v>
       </c>
       <c r="L23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.33186</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.38476</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" si="3"/>
+      <c r="N23" s="3">
+        <f t="shared" si="6"/>
+        <v>1.2905426086956524</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="7"/>
         <v>-3.3921563598122422</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-6.041590229072999</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="9"/>
         <v>1.5987577639751551</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>48.9</v>
       </c>
@@ -18222,23 +18461,31 @@
         <v>1.38</v>
       </c>
       <c r="L24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4211400000000001</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.4830399999999999</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" si="3"/>
+      <c r="N24" s="3">
+        <f t="shared" si="6"/>
+        <v>1.3798226086956524</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="7"/>
         <v>-3.969271808551559</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-6.6187056778123159</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="9"/>
         <v>1.7142857142857142</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>50.3</v>
       </c>
@@ -18249,21 +18496,40 @@
         <v>1.506</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4905799999999998</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.5594799999999998</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="3"/>
+      <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>1.4492626086956522</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="7"/>
         <v>-4.4181393797932627</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
+        <v>-7.0675732490540195</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="9"/>
         <v>1.8708074534161492</v>
       </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="3">
+        <f>AVERAGE(L3:L25)</f>
+        <v>0.39722347826086951</v>
+      </c>
+      <c r="M26" s="3">
+        <f>AVERAGE(M3:M25)</f>
+        <v>0.35590608695652187</v>
+      </c>
+      <c r="N26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18278,7 +18544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -18752,7 +19018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -18763,13 +19029,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -18802,7 +19068,7 @@
         <v>11.3</v>
       </c>
       <c r="B3" s="1">
-        <f>100.25+(0.3792*A3)</f>
+        <f t="shared" ref="B3:B20" si="0">100.25+(0.3792*A3)</f>
         <v>104.53496</v>
       </c>
       <c r="C3" s="3">
@@ -18821,7 +19087,7 @@
         <v>10.349869299999998</v>
       </c>
       <c r="G3" s="1">
-        <f>(D3-E3)/$D$20*100</f>
+        <f t="shared" ref="G3:G20" si="1">(D3-E3)/$D$20*100</f>
         <v>-7.4839048913740474</v>
       </c>
       <c r="H3" s="1">
@@ -18841,30 +19107,30 @@
         <v>13.3</v>
       </c>
       <c r="B4" s="1">
-        <f>100.25+(0.3792*A4)</f>
+        <f t="shared" si="0"/>
         <v>105.29336000000001</v>
       </c>
       <c r="C4" s="3">
         <v>-0.372</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D20" si="0">0.0546*A4-1.1869</f>
+        <f t="shared" ref="D4:D20" si="2">0.0546*A4-1.1869</f>
         <v>-0.46072000000000002</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E20" si="1">0.0503*A4-1.0216</f>
+        <f t="shared" ref="E4:E20" si="3">0.0503*A4-1.0216</f>
         <v>-0.35261000000000009</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F20" si="2">19.8807*C4+20.3101</f>
+        <f t="shared" ref="F4:F20" si="4">19.8807*C4+20.3101</f>
         <v>12.914479599999998</v>
       </c>
       <c r="G4" s="1">
-        <f>(D4-E4)/$D$20*100</f>
+        <f t="shared" si="1"/>
         <v>-6.9324390181342466</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H20" si="3">ABS(G4)</f>
+        <f t="shared" ref="H4:H20" si="5">ABS(G4)</f>
         <v>6.9324390181342466</v>
       </c>
       <c r="I4" s="1"/>
@@ -18875,30 +19141,30 @@
         <v>15.8</v>
       </c>
       <c r="B5" s="1">
-        <f>100.25+(0.3792*A5)</f>
+        <f t="shared" si="0"/>
         <v>106.24136</v>
       </c>
       <c r="C5" s="3">
         <v>-0.246</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.32421999999999995</v>
       </c>
       <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>-0.22686000000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="4"/>
+        <v>15.419447799999999</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>-0.22686000000000006</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="2"/>
-        <v>15.419447799999999</v>
-      </c>
-      <c r="G5" s="1">
-        <f>(D5-E5)/$D$20*100</f>
         <v>-6.243106676584496</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.243106676584496</v>
       </c>
       <c r="I5" s="1"/>
@@ -18909,30 +19175,30 @@
         <v>18.5</v>
       </c>
       <c r="B6" s="1">
-        <f>100.25+(0.3792*A6)</f>
+        <f t="shared" si="0"/>
         <v>107.26519999999999</v>
       </c>
       <c r="C6" s="3">
         <v>-8.7999999999999995E-2</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.17680000000000007</v>
       </c>
       <c r="E6" s="3">
+        <f t="shared" si="3"/>
+        <v>-9.1050000000000075E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="4"/>
+        <v>18.5605984</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>-9.1050000000000075E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>18.5605984</v>
-      </c>
-      <c r="G6" s="1">
-        <f>(D6-E6)/$D$20*100</f>
         <v>-5.4986277477107759</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.4986277477107759</v>
       </c>
       <c r="I6" s="1"/>
@@ -18943,30 +19209,30 @@
         <v>20.9</v>
       </c>
       <c r="B7" s="1">
-        <f>100.25+(0.3792*A7)</f>
+        <f t="shared" si="0"/>
         <v>108.17528</v>
       </c>
       <c r="C7" s="3">
         <v>3.9E-2</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.5760000000000023E-2</v>
       </c>
       <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>2.9669999999999863E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="4"/>
+        <v>21.085447299999998</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>2.9669999999999863E-2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="2"/>
-        <v>21.085447299999998</v>
-      </c>
-      <c r="G7" s="1">
-        <f>(D7-E7)/$D$20*100</f>
         <v>-4.836868699823011</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.836868699823011</v>
       </c>
       <c r="I7" s="1"/>
@@ -18977,30 +19243,30 @@
         <v>23.4</v>
       </c>
       <c r="B8" s="1">
-        <f>100.25+(0.3792*A8)</f>
+        <f t="shared" si="0"/>
         <v>109.12327999999999</v>
       </c>
       <c r="C8" s="3">
         <v>0.17699999999999999</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.0739999999999821E-2</v>
       </c>
       <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15541999999999989</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="4"/>
+        <v>23.828983899999997</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>0.15541999999999989</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>23.828983899999997</v>
-      </c>
-      <c r="G8" s="1">
-        <f>(D8-E8)/$D$20*100</f>
         <v>-4.1475363582732756</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.1475363582732756</v>
       </c>
       <c r="I8" s="1"/>
@@ -19011,30 +19277,30 @@
         <v>25.9</v>
       </c>
       <c r="B9" s="1">
-        <f>100.25+(0.3792*A9)</f>
+        <f t="shared" si="0"/>
         <v>110.07128</v>
       </c>
       <c r="C9" s="3">
         <v>0.29499999999999998</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22723999999999989</v>
       </c>
       <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>0.2811699999999997</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="4"/>
+        <v>26.174906499999999</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>0.2811699999999997</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>26.174906499999999</v>
-      </c>
-      <c r="G9" s="1">
-        <f>(D9-E9)/$D$20*100</f>
         <v>-3.4582040167235117</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.4582040167235117</v>
       </c>
       <c r="I9" s="1"/>
@@ -19045,30 +19311,30 @@
         <v>27.7</v>
       </c>
       <c r="B10" s="1">
-        <f>100.25+(0.3792*A10)</f>
+        <f t="shared" si="0"/>
         <v>110.75384</v>
       </c>
       <c r="C10" s="3">
         <v>0.39700000000000002</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.32552000000000003</v>
       </c>
       <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>0.37170999999999976</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="4"/>
+        <v>28.202737899999999</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>0.37170999999999976</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>28.202737899999999</v>
-      </c>
-      <c r="G10" s="1">
-        <f>(D10-E10)/$D$20*100</f>
         <v>-2.9618847308076885</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9618847308076885</v>
       </c>
       <c r="I10" s="1"/>
@@ -19079,30 +19345,30 @@
         <v>29.7</v>
       </c>
       <c r="B11" s="1">
-        <f>100.25+(0.3792*A11)</f>
+        <f t="shared" si="0"/>
         <v>111.51223999999999</v>
       </c>
       <c r="C11" s="3">
         <v>0.496</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.43472</v>
       </c>
       <c r="E11" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47230999999999979</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="4"/>
+        <v>30.170927200000001</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
-        <v>0.47230999999999979</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>30.170927200000001</v>
-      </c>
-      <c r="G11" s="1">
-        <f>(D11-E11)/$D$20*100</f>
         <v>-2.410418857567894</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.410418857567894</v>
       </c>
       <c r="I11" s="1"/>
@@ -19113,30 +19379,30 @@
         <v>31.6</v>
       </c>
       <c r="B12" s="1">
-        <f>100.25+(0.3792*A12)</f>
+        <f t="shared" si="0"/>
         <v>112.23272</v>
       </c>
       <c r="C12" s="3">
         <v>0.58099999999999996</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.53846000000000016</v>
       </c>
       <c r="E12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.56787999999999994</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="4"/>
+        <v>31.860786699999998</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="1"/>
-        <v>0.56787999999999994</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>31.860786699999998</v>
-      </c>
-      <c r="G12" s="1">
-        <f>(D12-E12)/$D$20*100</f>
         <v>-1.8865262779900853</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8865262779900853</v>
       </c>
       <c r="I12" s="1"/>
@@ -19147,30 +19413,30 @@
         <v>33.799999999999997</v>
       </c>
       <c r="B13" s="1">
-        <f>100.25+(0.3792*A13)</f>
+        <f t="shared" si="0"/>
         <v>113.06695999999999</v>
       </c>
       <c r="C13" s="3">
         <v>0.71299999999999997</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.65857999999999994</v>
       </c>
       <c r="E13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.6785399999999997</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>34.485039099999995</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="1"/>
-        <v>0.6785399999999997</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="2"/>
-        <v>34.485039099999995</v>
-      </c>
-      <c r="G13" s="1">
-        <f>(D13-E13)/$D$20*100</f>
         <v>-1.2799138174263063</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.2799138174263063</v>
       </c>
       <c r="I13" s="1"/>
@@ -19181,30 +19447,30 @@
         <v>35.6</v>
       </c>
       <c r="B14" s="1">
-        <f>100.25+(0.3792*A14)</f>
+        <f t="shared" si="0"/>
         <v>113.74952</v>
       </c>
       <c r="C14" s="3">
         <v>0.79400000000000004</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.75686000000000009</v>
       </c>
       <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76907999999999999</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="4"/>
+        <v>36.095375799999999</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="1"/>
-        <v>0.76907999999999999</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="2"/>
-        <v>36.095375799999999</v>
-      </c>
-      <c r="G14" s="1">
-        <f>(D14-E14)/$D$20*100</f>
         <v>-0.78359453151049707</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78359453151049707</v>
       </c>
       <c r="I14" s="1"/>
@@ -19215,30 +19481,30 @@
         <v>38.700000000000003</v>
       </c>
       <c r="B15" s="1">
-        <f>100.25+(0.3792*A15)</f>
+        <f t="shared" si="0"/>
         <v>114.92504</v>
       </c>
       <c r="C15" s="3">
         <v>0.94399999999999995</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92612000000000005</v>
       </c>
       <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>0.92500999999999989</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>39.077480800000004</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="1"/>
-        <v>0.92500999999999989</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>39.077480800000004</v>
-      </c>
-      <c r="G15" s="1">
-        <f>(D15-E15)/$D$20*100</f>
         <v>7.1177572011193888E-2</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.1177572011193888E-2</v>
       </c>
       <c r="I15" s="1"/>
@@ -19249,30 +19515,30 @@
         <v>41.1</v>
       </c>
       <c r="B16" s="1">
-        <f>100.25+(0.3792*A16)</f>
+        <f t="shared" si="0"/>
         <v>115.83512</v>
       </c>
       <c r="C16" s="3">
         <v>1.054</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.0571600000000001</v>
       </c>
       <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>1.04573</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>41.264357799999999</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="1"/>
-        <v>1.04573</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="2"/>
-        <v>41.264357799999999</v>
-      </c>
-      <c r="G16" s="1">
-        <f>(D16-E16)/$D$20*100</f>
         <v>0.7329366198989441</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.7329366198989441</v>
       </c>
       <c r="I16" s="1"/>
@@ -19283,30 +19549,30 @@
         <v>42.7</v>
       </c>
       <c r="B17" s="1">
-        <f>100.25+(0.3792*A17)</f>
+        <f t="shared" si="0"/>
         <v>116.44184</v>
       </c>
       <c r="C17" s="3">
         <v>1.1200000000000001</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.1445200000000004</v>
       </c>
       <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1262100000000002</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>42.576484000000001</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="1"/>
-        <v>1.1262100000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="2"/>
-        <v>42.576484000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <f>(D17-E17)/$D$20*100</f>
         <v>1.1741093184907965</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1741093184907965</v>
       </c>
       <c r="I17" s="1"/>
@@ -19317,30 +19583,30 @@
         <v>45.2</v>
       </c>
       <c r="B18" s="1">
-        <f>100.25+(0.3792*A18)</f>
+        <f t="shared" si="0"/>
         <v>117.38983999999999</v>
       </c>
       <c r="C18" s="3">
         <v>1.2170000000000001</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.2810200000000003</v>
       </c>
       <c r="E18" s="3">
+        <f t="shared" si="3"/>
+        <v>1.2519600000000002</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>44.504911899999996</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
-        <v>1.2519600000000002</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="2"/>
-        <v>44.504911899999996</v>
-      </c>
-      <c r="G18" s="1">
-        <f>(D18-E18)/$D$20*100</f>
         <v>1.8634416600405319</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.8634416600405319</v>
       </c>
       <c r="I18" s="1"/>
@@ -19351,30 +19617,30 @@
         <v>49.3</v>
       </c>
       <c r="B19" s="1">
-        <f>100.25+(0.3792*A19)</f>
+        <f t="shared" si="0"/>
         <v>118.94456</v>
       </c>
       <c r="C19" s="3">
         <v>1.43</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.50488</v>
       </c>
       <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4581899999999999</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>48.739500999999997</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="1"/>
-        <v>1.4581899999999999</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="2"/>
-        <v>48.739500999999997</v>
-      </c>
-      <c r="G19" s="1">
-        <f>(D19-E19)/$D$20*100</f>
         <v>2.9939467001821201</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9939467001821201</v>
       </c>
       <c r="I19" s="1"/>
@@ -19385,30 +19651,30 @@
         <v>50.3</v>
       </c>
       <c r="B20" s="1">
-        <f>100.25+(0.3792*A20)</f>
+        <f t="shared" si="0"/>
         <v>119.32375999999999</v>
       </c>
       <c r="C20" s="3">
         <v>1.49</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5594799999999998</v>
       </c>
       <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5084899999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>49.932343000000003</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="1"/>
-        <v>1.5084899999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="2"/>
-        <v>49.932343000000003</v>
-      </c>
-      <c r="G20" s="1">
-        <f>(D20-E20)/$D$20*100</f>
         <v>3.2696796368020031</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2696796368020031</v>
       </c>
       <c r="I20" s="1"/>
@@ -19431,19 +19697,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -19456,8 +19723,14 @@
       <c r="D1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -19481,8 +19754,43 @@
         <f>(14.6997-16.5017*D2)</f>
         <v>2.8184760000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f>15.0118-16.8067*D2</f>
+        <v>2.9109759999999998</v>
+      </c>
+      <c r="I2">
+        <f>(C2-H2)/$C$7*100</f>
+        <v>11.772514851485147</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -19506,8 +19814,52 @@
         <f t="shared" ref="G3:G7" si="1">(14.6997-16.5017*D3)</f>
         <v>4.9471953000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="2">15.0118-16.8067*D3</f>
+        <v>5.0790403000000008</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="3">(C3-H3)/$C$7*100</f>
+        <v>-5.7330722772277314</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3">
+        <v>60</v>
+      </c>
+      <c r="N3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="P3" s="3">
+        <f>15.0118-16.8067*O3</f>
+        <v>2.9109759999999998</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>1/O3</f>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="R3">
+        <f>Q3*60</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="S3">
+        <f>0.01885*R3</f>
+        <v>1.5708333333333331</v>
+      </c>
+      <c r="T3" s="8">
+        <f>S3/P3</f>
+        <v>0.53962428179872768</v>
+      </c>
+      <c r="U3" s="1">
+        <f>S3/$T$9</f>
+        <v>4.0812834826262261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -19531,8 +19883,52 @@
         <f t="shared" si="1"/>
         <v>5.8712904999999989</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>6.0202154999999991</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>-3.1704504950494941</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>60</v>
+      </c>
+      <c r="N4">
+        <v>4.5</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P8" si="4">15.0118-16.8067*O4</f>
+        <v>5.0790403000000008</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q8" si="5">1/O4</f>
+        <v>1.6920473773265652</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R8" si="6">Q4*60</f>
+        <v>101.5228426395939</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S8" si="7">0.01885*R4</f>
+        <v>1.913705583756345</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" ref="T4:T8" si="8">S4/P4</f>
+        <v>0.37678487878041539</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" ref="U4:U8" si="9">S4/$T$9</f>
+        <v>4.9721220092908345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -19543,7 +19939,7 @@
         <v>6.9</v>
       </c>
       <c r="D5">
-        <v>0.42099999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="E5">
         <v>7.7</v>
@@ -19554,10 +19950,54 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>7.7524843000000008</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.8448908000000008</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>7.0118108000000001</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-1.107037623762374</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>5.7</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="4"/>
+        <v>6.0202154999999991</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="5"/>
+        <v>1.8691588785046729</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="6"/>
+        <v>112.14953271028037</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>2.1140186915887846</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="8"/>
+        <v>0.35115332525700865</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="9"/>
+        <v>5.4925684252166036</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -19581,8 +20021,52 @@
         <f t="shared" si="1"/>
         <v>7.9009996000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>8.0874395999999997</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>-7.7964316831683158</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>6.9</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="4"/>
+        <v>7.0118108000000001</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="5"/>
+        <v>2.1008403361344539</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>126.05042016806723</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="7"/>
+        <v>2.3760504201680672</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="8"/>
+        <v>0.33886402356550566</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="9"/>
+        <v>6.1733699737203436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -19606,10 +20090,108 @@
         <f t="shared" si="1"/>
         <v>9.3036440999999996</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>9.516009099999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>5.782088118811898</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <v>7.3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="4"/>
+        <v>8.0874395999999997</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="5"/>
+        <v>2.4271844660194177</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>145.63106796116506</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="7"/>
+        <v>2.7451456310679609</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="8"/>
+        <v>0.33943321580639207</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="9"/>
+        <v>7.1323400667254448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>10.1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="4"/>
+        <v>9.516009099999998</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0581039755351682</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>183.48623853211009</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>3.4587155963302751</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="8"/>
+        <v>0.36346282984641909</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="9"/>
+        <v>8.9863122553238028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f>AVERAGE(T3:T8)</f>
+        <v>0.38488709250907815</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D7">
-    <sortCondition ref="C2"/>
+  <sortState ref="L3:N8">
+    <sortCondition ref="N3:N8"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/Resources/Excel/Medidas Iniciais.xlsx
+++ b/Resources/Excel/Medidas Iniciais.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>200nF</t>
   </si>
@@ -233,6 +233,9 @@
   <si>
     <t>Rel (V_ft/V_tan)</t>
   </si>
+  <si>
+    <t>erro lin</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +245,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -289,10 +292,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1145,11 +1148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422420640"/>
-        <c:axId val="422424560"/>
+        <c:axId val="371556760"/>
+        <c:axId val="371565384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422420640"/>
+        <c:axId val="371556760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,12 +1209,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422424560"/>
+        <c:crossAx val="371565384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422424560"/>
+        <c:axId val="371565384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1271,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422420640"/>
+        <c:crossAx val="371556760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1332,7 +1335,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1407,7 +1409,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1604,11 +1605,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472127200"/>
-        <c:axId val="472136608"/>
+        <c:axId val="421886288"/>
+        <c:axId val="421890992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472127200"/>
+        <c:axId val="421886288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,12 +1666,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472136608"/>
+        <c:crossAx val="421890992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472136608"/>
+        <c:axId val="421890992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1728,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472127200"/>
+        <c:crossAx val="421886288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1791,7 +1792,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1866,7 +1866,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2063,11 +2062,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472130728"/>
-        <c:axId val="472127592"/>
+        <c:axId val="421885112"/>
+        <c:axId val="421892952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472130728"/>
+        <c:axId val="421885112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,12 +2123,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472127592"/>
+        <c:crossAx val="421892952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472127592"/>
+        <c:axId val="421892952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2185,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472130728"/>
+        <c:crossAx val="421885112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,7 +2249,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,11 +2495,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472129944"/>
-        <c:axId val="472129160"/>
+        <c:axId val="421893736"/>
+        <c:axId val="421894520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472129944"/>
+        <c:axId val="421893736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,12 +2556,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472129160"/>
+        <c:crossAx val="421894520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472129160"/>
+        <c:axId val="421894520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2620,7 +2618,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472129944"/>
+        <c:crossAx val="421893736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2684,7 +2682,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2861,11 +2858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472127984"/>
-        <c:axId val="472131904"/>
+        <c:axId val="421886680"/>
+        <c:axId val="421888248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472127984"/>
+        <c:axId val="421886680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2922,12 +2919,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472131904"/>
+        <c:crossAx val="421888248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472131904"/>
+        <c:axId val="421888248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +2981,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472127984"/>
+        <c:crossAx val="421886680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3288,11 +3285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422422208"/>
-        <c:axId val="422431616"/>
+        <c:axId val="371557152"/>
+        <c:axId val="371559504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422422208"/>
+        <c:axId val="371557152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3349,12 +3346,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422431616"/>
+        <c:crossAx val="371559504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422431616"/>
+        <c:axId val="371559504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3411,7 +3408,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422422208"/>
+        <c:crossAx val="371557152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3741,11 +3738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422426912"/>
-        <c:axId val="422421424"/>
+        <c:axId val="371560680"/>
+        <c:axId val="371566560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422426912"/>
+        <c:axId val="371560680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,12 +3799,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422421424"/>
+        <c:crossAx val="371566560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422421424"/>
+        <c:axId val="371566560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3864,7 +3861,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422426912"/>
+        <c:crossAx val="371560680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4208,11 +4205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422421032"/>
-        <c:axId val="422421816"/>
+        <c:axId val="371566952"/>
+        <c:axId val="371559896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422421032"/>
+        <c:axId val="371566952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10"/>
@@ -4270,12 +4267,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422421816"/>
+        <c:crossAx val="371559896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422421816"/>
+        <c:axId val="371559896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4332,7 +4329,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422421032"/>
+        <c:crossAx val="371566952"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4396,7 +4393,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4645,11 +4641,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="422427304"/>
-        <c:axId val="422428088"/>
+        <c:axId val="371561464"/>
+        <c:axId val="371567736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="422427304"/>
+        <c:axId val="371561464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4706,12 +4702,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422428088"/>
+        <c:crossAx val="371567736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="422428088"/>
+        <c:axId val="371567736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4768,7 +4764,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="422427304"/>
+        <c:crossAx val="371561464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5080,11 +5076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472134648"/>
-        <c:axId val="472136216"/>
+        <c:axId val="421889424"/>
+        <c:axId val="421889816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472134648"/>
+        <c:axId val="421889424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5141,12 +5137,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472136216"/>
+        <c:crossAx val="421889816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472136216"/>
+        <c:axId val="421889816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5203,7 +5199,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472134648"/>
+        <c:crossAx val="421889424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5267,7 +5263,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5525,11 +5520,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472125240"/>
-        <c:axId val="472134256"/>
+        <c:axId val="421890600"/>
+        <c:axId val="421892168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472125240"/>
+        <c:axId val="421890600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5586,12 +5581,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472134256"/>
+        <c:crossAx val="421892168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472134256"/>
+        <c:axId val="421892168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5648,7 +5643,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472125240"/>
+        <c:crossAx val="421890600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5996,11 +5991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472135432"/>
-        <c:axId val="472126416"/>
+        <c:axId val="421894128"/>
+        <c:axId val="421894912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472135432"/>
+        <c:axId val="421894128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6057,12 +6052,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472126416"/>
+        <c:crossAx val="421894912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472126416"/>
+        <c:axId val="421894912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6119,7 +6114,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472135432"/>
+        <c:crossAx val="421894128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6183,7 +6178,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6258,7 +6252,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -6455,11 +6448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472135824"/>
-        <c:axId val="472126808"/>
+        <c:axId val="421888640"/>
+        <c:axId val="421885896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472135824"/>
+        <c:axId val="421888640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6516,12 +6509,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472126808"/>
+        <c:crossAx val="421885896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472126808"/>
+        <c:axId val="421885896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6578,7 +6571,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472135824"/>
+        <c:crossAx val="421888640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17189,12 +17182,12 @@
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="I1" t="s">
         <v>29</v>
       </c>
@@ -17369,7 +17362,7 @@
         <v>-0.87021999999999999</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" ref="N4:N26" si="6">L4+$N$1</f>
+        <f t="shared" ref="N4:N25" si="6">L4+$N$1</f>
         <v>-0.75793739130434767</v>
       </c>
       <c r="O4" s="1">
@@ -19029,13 +19022,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -19700,7 +19693,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="U3" sqref="U3:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -19789,6 +19782,9 @@
       <c r="T2" t="s">
         <v>66</v>
       </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19850,13 +19846,13 @@
         <f>0.01885*R3</f>
         <v>1.5708333333333331</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="7">
         <f>S3/P3</f>
         <v>0.53962428179872768</v>
       </c>
       <c r="U3" s="1">
-        <f>S3/$T$9</f>
-        <v>4.0812834826262261</v>
+        <f>(N3-P3)/$N$8*100</f>
+        <v>11.772514851485147</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -19919,13 +19915,13 @@
         <f t="shared" ref="S4:S8" si="7">0.01885*R4</f>
         <v>1.913705583756345</v>
       </c>
-      <c r="T4" s="8">
+      <c r="T4" s="7">
         <f t="shared" ref="T4:T8" si="8">S4/P4</f>
         <v>0.37678487878041539</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U8" si="9">S4/$T$9</f>
-        <v>4.9721220092908345</v>
+        <f t="shared" ref="U4:U8" si="9">(N4-P4)/$N$8*100</f>
+        <v>-5.7330722772277314</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -19988,13 +19984,13 @@
         <f t="shared" si="7"/>
         <v>2.1140186915887846</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="7">
         <f t="shared" si="8"/>
         <v>0.35115332525700865</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="9"/>
-        <v>5.4925684252166036</v>
+        <v>-3.1704504950494941</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -20057,13 +20053,13 @@
         <f t="shared" si="7"/>
         <v>2.3760504201680672</v>
       </c>
-      <c r="T6" s="8">
+      <c r="T6" s="7">
         <f t="shared" si="8"/>
         <v>0.33886402356550566</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="9"/>
-        <v>6.1733699737203436</v>
+        <v>-1.107037623762374</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -20126,13 +20122,13 @@
         <f t="shared" si="7"/>
         <v>2.7451456310679609</v>
       </c>
-      <c r="T7" s="8">
+      <c r="T7" s="7">
         <f t="shared" si="8"/>
         <v>0.33943321580639207</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="9"/>
-        <v>7.1323400667254448</v>
+        <v>-7.7964316831683158</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -20164,13 +20160,13 @@
         <f t="shared" si="7"/>
         <v>3.4587155963302751</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="7">
         <f t="shared" si="8"/>
         <v>0.36346282984641909</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="9"/>
-        <v>8.9863122553238028</v>
+        <v>5.782088118811898</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
